--- a/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1379 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r563567842-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>106744</t>
+  </si>
+  <si>
+    <t>563567842</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>WORST HOTEL I EVER STAYED.</t>
+  </si>
+  <si>
+    <t>The manager Sergio is a joke. So unprofessional and disrespectful. He would not own up to the fact that they messed up my deposit. He tried to call the police, lied and told them I was harassing him and would not leave when he would not answer my questions about my bill. The place always smells stale and dirty. It takes hours just to get new towels or any kind of help. The heater does not work. Sergio will also hound you for a "10" rating/review which is ridiculous. The whole staff and management should be replaced with people who knows how to give great guest customer service. Marriott would never be such a mess. Oh and I still have yet to receive my deposit from them.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>The manager Sergio is a joke. So unprofessional and disrespectful. He would not own up to the fact that they messed up my deposit. He tried to call the police, lied and told them I was harassing him and would not leave when he would not answer my questions about my bill. The place always smells stale and dirty. It takes hours just to get new towels or any kind of help. The heater does not work. Sergio will also hound you for a "10" rating/review which is ridiculous. The whole staff and management should be replaced with people who knows how to give great guest customer service. Marriott would never be such a mess. Oh and I still have yet to receive my deposit from them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r551141309-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>551141309</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>The Worst Experience Ever</t>
+  </si>
+  <si>
+    <t>This is the worst hotel ever!!! The staff was rude. The manager was rude! The room was below expectations. The staff that was there late at night did not know how to do anything. Maintenance was not there. We were freezing in our room for hours! When I contacted the front desk after 20 attempts he proceeded to say there was nothing they could do so we had to get out or the police was going to get called stated the manager Sergio!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>This is the worst hotel ever!!! The staff was rude. The manager was rude! The room was below expectations. The staff that was there late at night did not know how to do anything. Maintenance was not there. We were freezing in our room for hours! When I contacted the front desk after 20 attempts he proceeded to say there was nothing they could do so we had to get out or the police was going to get called stated the manager Sergio!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r547781911-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>547781911</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Very nice stay.</t>
+  </si>
+  <si>
+    <t>The stay was very nice. Check-in staff seemed to have an attitude when I informed them that I felt ignored while waiting for 20+ minutes to see if I could check-in early. I was informed that thee is a $25 fee for checking-in early.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>The stay was very nice. Check-in staff seemed to have an attitude when I informed them that I felt ignored while waiting for 20+ minutes to see if I could check-in early. I was informed that thee is a $25 fee for checking-in early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r531184549-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>531184549</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>No one answered phone, even from room...busy signalDrove there and went in, no one at deskHall smells awful, put towel under door and opened perfume bottleNo ice bucket no coffee maker , no cupshair in the tub a ring around the toilet kids running up and down the Halls screaming , dog barking continual for hoursFuzzy TV reception and was only on narrow aspect could not change it to normalYou have to pay extra to get a non-smoking roomDog barked nonstop for hoursBreakfast, instant oatmeal packet lolMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>No one answered phone, even from room...busy signalDrove there and went in, no one at deskHall smells awful, put towel under door and opened perfume bottleNo ice bucket no coffee maker , no cupshair in the tub a ring around the toilet kids running up and down the Halls screaming , dog barking continual for hoursFuzzy TV reception and was only on narrow aspect could not change it to normalYou have to pay extra to get a non-smoking roomDog barked nonstop for hoursBreakfast, instant oatmeal packet lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r528880257-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>528880257</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>The absolute worst place I have ever stayed</t>
+  </si>
+  <si>
+    <t>A total nightmare from the day the GM named Sergio arrived. Extremely unprofessional, underhanded staff other than the long term employees. Thank you Miss. Peggy, Miss. Jo-Anne, Manuel and Miss. Sylvia.  Christie the "lead" is even worse. Double charged us for upgrading Internet. I had to email Corporate because of their refusal to have pest control return for roaches and the day prior to checkout deleted our coupons due at checkout AND our $100 deposit. My suggestion, record your conversation as I have in order to get your money back in court! Side note, it's absolutely legal in the State of Texas. Educate yourself. As a form of retaliation the GM named Sergio called the police on me when I pressed play. Imagine how I felt that there was a need to press record?MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>A total nightmare from the day the GM named Sergio arrived. Extremely unprofessional, underhanded staff other than the long term employees. Thank you Miss. Peggy, Miss. Jo-Anne, Manuel and Miss. Sylvia.  Christie the "lead" is even worse. Double charged us for upgrading Internet. I had to email Corporate because of their refusal to have pest control return for roaches and the day prior to checkout deleted our coupons due at checkout AND our $100 deposit. My suggestion, record your conversation as I have in order to get your money back in court! Side note, it's absolutely legal in the State of Texas. Educate yourself. As a form of retaliation the GM named Sergio called the police on me when I pressed play. Imagine how I felt that there was a need to press record?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r526405400-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>526405400</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>My exceptional stay at Extened Stay America Dallas Lewisville</t>
+  </si>
+  <si>
+    <t>Upon my stay at Extended Stay America Dallas Lewisville I was treated with kindness and was shown very good hospitality I recommend that anybody or everybody should stay here at least for one weekend I was told about some places to go and eat in the surrounding area and was very exceptional to the staff here and the cleanliness of the place is very very very clean I know if I come back I will definitely be staying here again very spacious and Roomy Room very clean in the room all I know is very happy with my stayMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Upon my stay at Extended Stay America Dallas Lewisville I was treated with kindness and was shown very good hospitality I recommend that anybody or everybody should stay here at least for one weekend I was told about some places to go and eat in the surrounding area and was very exceptional to the staff here and the cleanliness of the place is very very very clean I know if I come back I will definitely be staying here again very spacious and Roomy Room very clean in the room all I know is very happy with my stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r523638540-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>523638540</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t>Francis and Christie both are two very caring awesome individuals ! Felt like home because of these two ladies took very good care of me and my co workers, I will definitely recommend this extended stay and will return - room 204MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Francis and Christie both are two very caring awesome individuals ! Felt like home because of these two ladies took very good care of me and my co workers, I will definitely recommend this extended stay and will return - room 204More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r510223359-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>510223359</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Just plain horrible!</t>
+  </si>
+  <si>
+    <t>Horrible I will never recommend or come back to this place ever! Me and my wife left immediately without saying bye to anyway thats how horrible it was! We left out the back door after being in the room for like 20 minutes!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Horrible I will never recommend or come back to this place ever! Me and my wife left immediately without saying bye to anyway thats how horrible it was! We left out the back door after being in the room for like 20 minutes!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r509908763-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>509908763</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, but need more agility</t>
+  </si>
+  <si>
+    <t>Good hotel for the price, but need improve the check in, the deposit return, etc.  Some days since then and the return of the deposit, still not in my account (better to ask in cash, and return in cash)   Host gentil, but very long the check in, (insist)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Good hotel for the price, but need improve the check in, the deposit return, etc.  Some days since then and the return of the deposit, still not in my account (better to ask in cash, and return in cash)   Host gentil, but very long the check in, (insist)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r508748611-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>508748611</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Great Staff - Great Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed very much our stay at Extended Stay America - Lewisville - Sergio, the manager was great, so was his staff: very accommodating, nice and helpful. We would definitely return in the future.We recommenced this place. Clean rooms and utensils.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed very much our stay at Extended Stay America - Lewisville - Sergio, the manager was great, so was his staff: very accommodating, nice and helpful. We would definitely return in the future.We recommenced this place. Clean rooms and utensils.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r506474411-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>506474411</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Dirty hotel</t>
+  </si>
+  <si>
+    <t>Hotel was dirty. From elevator to halls to trash behind nightstand in room.  Staff unprofessional.  Breakfast in doorway.  People always hanging out smoking at door even though sign said 15 feet of non smoking.  Venthood not installed so you couldn't prepare meal without smoke alarm going off.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was dirty. From elevator to halls to trash behind nightstand in room.  Staff unprofessional.  Breakfast in doorway.  People always hanging out smoking at door even though sign said 15 feet of non smoking.  Venthood not installed so you couldn't prepare meal without smoke alarm going off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r504922032-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>504922032</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>I don't usually write reviews. But....</t>
+  </si>
+  <si>
+    <t>Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.
+That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying...Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying to keep up with the hotel standards here. Guess what? it doesn't stop at just re-flooring. When you say "you spent enough for the improvements at this location" are you saying so thinking about your guest? It certainly doesn't seem so. I've been at this location for 3 months now. When I first got here all 6 dryers were working. Then after the first month 1 dryer went down. Then 2 then 3...So on, and so forth. Now, months later, a fifth one (5 out of 6) is about to go down. You can hear it. Let me ask you of those who run the chain, and are in charge of the DFW area Extend ed Stay America...Are you sure your in the right business? The business of hospitality? Spend some money. Reinvest in what makes you money, other wise your going to lose. Customer will stop coming to your chain. I don't care how cheap you make it. I'd hate to think about being the person at the front desk and having everyone complain that they can't use the laundry facility you call an "amenity" because your appliances wear out, and you don't pay to fix or replace them. Get a clue!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.
+That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying...Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying to keep up with the hotel standards here. Guess what? it doesn't stop at just re-flooring. When you say "you spent enough for the improvements at this location" are you saying so thinking about your guest? It certainly doesn't seem so. I've been at this location for 3 months now. When I first got here all 6 dryers were working. Then after the first month 1 dryer went down. Then 2 then 3...So on, and so forth. Now, months later, a fifth one (5 out of 6) is about to go down. You can hear it. Let me ask you of those who run the chain, and are in charge of the DFW area Extend ed Stay America...Are you sure your in the right business? The business of hospitality? Spend some money. Reinvest in what makes you money, other wise your going to lose. Customer will stop coming to your chain. I don't care how cheap you make it. I'd hate to think about being the person at the front desk and having everyone complain that they can't use the laundry facility you call an "amenity" because your appliances wear out, and you don't pay to fix or replace them. Get a clue!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500925921-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>500925921</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Great staff and clean rooms</t>
+  </si>
+  <si>
+    <t>I had a great stay while I was in Dallas and the front desk staff, Christie and Peggy were very polite and handled any of my needs without an attitude or any bad body language. Thanks a lot guys, I would stay again and recommend this hotel to anyone in the area staying. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I had a great stay while I was in Dallas and the front desk staff, Christie and Peggy were very polite and handled any of my needs without an attitude or any bad body language. Thanks a lot guys, I would stay again and recommend this hotel to anyone in the area staying. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500902343-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>500902343</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Staff is always helpful from Jo Ann,  Shamel, Sylvia, to Peggy, and Frances, all the way to Chris and Christy have a friendly word or assistance to everyone. They have made me and my family including our dog as comfortable as possible.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Staff is always helpful from Jo Ann,  Shamel, Sylvia, to Peggy, and Frances, all the way to Chris and Christy have a friendly word or assistance to everyone. They have made me and my family including our dog as comfortable as possible.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500249201-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>500249201</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Clean and safe for a reasonable price!</t>
+  </si>
+  <si>
+    <t>No bugs, bathroom was very clean, location is safe, and they care about keeping the place decent.  I would defiantly stay there again.  Only negatives during my stay was the room smelled heavily of mildew and smoke; the room was a non smoking room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>No bugs, bathroom was very clean, location is safe, and they care about keeping the place decent.  I would defiantly stay there again.  Only negatives during my stay was the room smelled heavily of mildew and smoke; the room was a non smoking room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r496520098-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>496520098</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>Initial issue with reservation made one month prior through 800 number but Manager Christie expertly handled.  In corporate district and close to several restaurants and interstate highway.  Would stay again if in the area and needed long term accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Initial issue with reservation made one month prior through 800 number but Manager Christie expertly handled.  In corporate district and close to several restaurants and interstate highway.  Would stay again if in the area and needed long term accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r495614653-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>495614653</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Won't be back</t>
+  </si>
+  <si>
+    <t>Rude manager, smelled like dog piss when you stepped in the door. Advertise they will bring you your kitchen equipment but don't. My door wouldn't just open I had to fight with it. The toilet drained all night and was never fixed. It was a rather unpleasant stay overall. Not all of the staff was rude just the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Rude manager, smelled like dog piss when you stepped in the door. Advertise they will bring you your kitchen equipment but don't. My door wouldn't just open I had to fight with it. The toilet drained all night and was never fixed. It was a rather unpleasant stay overall. Not all of the staff was rude just the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r479733966-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>479733966</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Very clean and staff very friendly and helpful</t>
+  </si>
+  <si>
+    <t>Facility very clean and staff very friendly and helpful. I left my makeup bag in the room and was hundreds of miles away when I noticed my bag missing. I immediately called the manager, he found my bag then mailed it to me!! So thankful to them!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Facility very clean and staff very friendly and helpful. I left my makeup bag in the room and was hundreds of miles away when I noticed my bag missing. I immediately called the manager, he found my bag then mailed it to me!! So thankful to them!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r476971054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>476971054</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I put this review under the wrong location but my husband and i came to lewisville one weekend after heading towards memphis and needed a hotel in dallas because we were tired from the drive but every single hotel i went to was booked up not to mention rude and non caring ao finally after 2 and a half hours of searching i came across the extended stay i was ify at first but we were exhausted so we gave it a try and im glad we did i met with the guest representative Christie and she was very welcoming they were also booked up at the time but she not only managed to get me a room at the last minute but cleaned it up for us the room was very clean and she also pointed out some great restaurants across the stret which was very helpful because we were hungry and had been eating junk food the whole ride,so i would just like to say we will definently be stayin at the Extened Stay motels they have earned our business great customer service and a great first time experience thank you Ms.Christie and Extended stay staffSincerely Dianna GronadoMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>I put this review under the wrong location but my husband and i came to lewisville one weekend after heading towards memphis and needed a hotel in dallas because we were tired from the drive but every single hotel i went to was booked up not to mention rude and non caring ao finally after 2 and a half hours of searching i came across the extended stay i was ify at first but we were exhausted so we gave it a try and im glad we did i met with the guest representative Christie and she was very welcoming they were also booked up at the time but she not only managed to get me a room at the last minute but cleaned it up for us the room was very clean and she also pointed out some great restaurants across the stret which was very helpful because we were hungry and had been eating junk food the whole ride,so i would just like to say we will definently be stayin at the Extened Stay motels they have earned our business great customer service and a great first time experience thank you Ms.Christie and Extended stay staffSincerely Dianna GronadoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473489376-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>473489376</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Great location, and also affordable!</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for about four months now due to a job assignment and I have been really happy about my stay. Staff are very friendly, anytime I need anything they are always there to help. If you ever stay at this location you won't regret it.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473480066-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>473480066</t>
+  </si>
+  <si>
+    <t>A warm welcome</t>
+  </si>
+  <si>
+    <t>Very great reception - understanding and courteous. Well done. Hirmanshu Singh was very understanding of my last minute booking. The hotel is located in a good part of town and has restaurants nearby for convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Very great reception - understanding and courteous. Well done. Hirmanshu Singh was very understanding of my last minute booking. The hotel is located in a good part of town and has restaurants nearby for convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r472784509-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>472784509</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladder assist </t>
+  </si>
+  <si>
+    <t>Nice quiet place to stay while out of town on business. Restaurants near by. Shopping. And airport are all close. The staff was respectful and helpful. Could use another elevator at the other end. Lol.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Nice quiet place to stay while out of town on business. Restaurants near by. Shopping. And airport are all close. The staff was respectful and helpful. Could use another elevator at the other end. Lol.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r471118637-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>471118637</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>RUN!  This is horrible!  These ppl took money off my credit card without my knowledge. They claim I owed even though I paid ahead. Then they claimed I owed $150.00 in the middle of my stay for my dog even though I let them know ahead of time about her and she walked in with me!  They raised my rate in the middle of my stay without my knowledge because The first room had MOLD AND MILDEW! And they HAD to put me in one with a double bed!!  Also the smell of drugs is overwhelming. Run run run!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sergio M, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>RUN!  This is horrible!  These ppl took money off my credit card without my knowledge. They claim I owed even though I paid ahead. Then they claimed I owed $150.00 in the middle of my stay for my dog even though I let them know ahead of time about her and she walked in with me!  They raised my rate in the middle of my stay without my knowledge because The first room had MOLD AND MILDEW! And they HAD to put me in one with a double bed!!  Also the smell of drugs is overwhelming. Run run run!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r468704586-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>468704586</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Well room service.</t>
+  </si>
+  <si>
+    <t>Have kitchen and bathroom. They have breakfast and hot water in lobby. Cleaning service every week. I will be back next travel time. Thanks those employ and manager care. I will be back next travel time.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sergio M, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Have kitchen and bathroom. They have breakfast and hot water in lobby. Cleaning service every week. I will be back next travel time. Thanks those employ and manager care. I will be back next travel time.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r435348441-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>435348441</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>I described them earlier:- Front desk staff was rude, not attentive, socializing, cursing and cutting up with staff and other long-term guests- Broken shower: had to take a sponge bath - Front desk did not accommodate when we let them know shower did not work- Iron was broken: burned a dress shirt of mine- No light fixtures worked- Arrived over an hour after check-in time, had to still wait for 30 minutes- Front desk was not present so I couldn't properly check out. Had to leave because I was in a hurry- No breakfast: only oatmeal packets and lukewarm waterMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>I described them earlier:- Front desk staff was rude, not attentive, socializing, cursing and cutting up with staff and other long-term guests- Broken shower: had to take a sponge bath - Front desk did not accommodate when we let them know shower did not work- Iron was broken: burned a dress shirt of mine- No light fixtures worked- Arrived over an hour after check-in time, had to still wait for 30 minutes- Front desk was not present so I couldn't properly check out. Had to leave because I was in a hurry- No breakfast: only oatmeal packets and lukewarm waterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r427646814-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>427646814</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Poor extended stay America</t>
+  </si>
+  <si>
+    <t>Lewisville Texas.  Definitely NOT a place I would recommend.  Overpriced for what you get.  Phones didn't work in room.  Not even a coffee pot in the room.  I will not return to Extended Stay America.  We reserved a second floor room and all they had waiting for us was a first floor, handicap room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Lewisville Texas.  Definitely NOT a place I would recommend.  Overpriced for what you get.  Phones didn't work in room.  Not even a coffee pot in the room.  I will not return to Extended Stay America.  We reserved a second floor room and all they had waiting for us was a first floor, handicap room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r418831569-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>418831569</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Beware of the Entrance</t>
+  </si>
+  <si>
+    <t>Overflowing garbage can with hundreds of cigarette butts at entrance was what was waiting for my arrival. A group of guests congregate here and smoke and drink. Thet were friendly but how the Staff would allow the garbage and butts to overflow is a telling sign to the condition of this location. It needs help.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Overflowing garbage can with hundreds of cigarette butts at entrance was what was waiting for my arrival. A group of guests congregate here and smoke and drink. Thet were friendly but how the Staff would allow the garbage and butts to overflow is a telling sign to the condition of this location. It needs help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r393712789-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>393712789</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Experience was one of the worst ever.  We are traveling from OKC to Dallas area to catch an early morning flight.  Arrived later than expected in the evening due to construction on I-35 and a wreck.  Arrived at hotel at 1040 pm (office hours were posted to be until 1100pm).  The employee at the front desk was rude and was closing the door upon arrival (20 minutes earlier than posted).  Employee indicated my room keys were in a lockbox in the entry way.  We immediately attempted to unload luggage and employee would not let me enter through the front door.  My children and I had to walk around the building to a side entrance.  Again, all of this was before 11 pm (the posted closing time for the front office).  No paperwork was completed for check in.  Hotel was large and it took some time to find our room and when we did the room keys would not work  Attempted to contact the after hours number without any resolution to the matter.  Also saw a roach in the common area. Have phoned management but no resposnse yet either.  Stay at your own risk!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Experience was one of the worst ever.  We are traveling from OKC to Dallas area to catch an early morning flight.  Arrived later than expected in the evening due to construction on I-35 and a wreck.  Arrived at hotel at 1040 pm (office hours were posted to be until 1100pm).  The employee at the front desk was rude and was closing the door upon arrival (20 minutes earlier than posted).  Employee indicated my room keys were in a lockbox in the entry way.  We immediately attempted to unload luggage and employee would not let me enter through the front door.  My children and I had to walk around the building to a side entrance.  Again, all of this was before 11 pm (the posted closing time for the front office).  No paperwork was completed for check in.  Hotel was large and it took some time to find our room and when we did the room keys would not work  Attempted to contact the after hours number without any resolution to the matter.  Also saw a roach in the common area. Have phoned management but no resposnse yet either.  Stay at your own risk!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r382451727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>382451727</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Had to change hotels after one night</t>
+  </si>
+  <si>
+    <t>I only stayed one night here, then moved to a lovely Marriott nearby for the rest of my trip.  I have no idea how other reviewers could have rated this hotel any higher than 2 stars.  It stinks. It's old and dirty.  The dogs are annoying.  Did I mention it stinks?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I only stayed one night here, then moved to a lovely Marriott nearby for the rest of my trip.  I have no idea how other reviewers could have rated this hotel any higher than 2 stars.  It stinks. It's old and dirty.  The dogs are annoying.  Did I mention it stinks?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r363996796-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>363996796</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Same problem as last visit.....not staying here again.</t>
+  </si>
+  <si>
+    <t>Unfortunately the hotel allows dogs but does not have a dog station dispensing bags to clean up after dogs.  Nor are guests even asked to pick up after their dogs.  And no one on staff is doing it either.  So basically as you walk around outside there are piles of dog feces on almost every inch of grass.  This causes another problem... the smell is disgusting!!  Its horrible.  Its to bad cause the grounds are actually nice.  But can't get past how disgusting the smell &amp; sight of it is.The other problem is that even though the housekeepers did a fine job on my room, there are not enough staff.  The rooms may get cleaned but the hallways, stair wells, laundry room are ridiculously filthy. Hire more people &amp; clean up the dog poop!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately the hotel allows dogs but does not have a dog station dispensing bags to clean up after dogs.  Nor are guests even asked to pick up after their dogs.  And no one on staff is doing it either.  So basically as you walk around outside there are piles of dog feces on almost every inch of grass.  This causes another problem... the smell is disgusting!!  Its horrible.  Its to bad cause the grounds are actually nice.  But can't get past how disgusting the smell &amp; sight of it is.The other problem is that even though the housekeepers did a fine job on my room, there are not enough staff.  The rooms may get cleaned but the hallways, stair wells, laundry room are ridiculously filthy. Hire more people &amp; clean up the dog poop!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r292483295-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>292483295</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Needs amenities, friendly staff</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the staff is friendly. The location is great (next to I35E) and they are pet friendly. My issue with this place is that it is an extended stay hotel that offers nothing for guests. There is no pool, fitness room, business center, communal area, or ice machine. There are two benches in front that are always crowded with guests socializing. People stay here for long periods and don't want to be confined to their rooms all of the time, but this place offers no solution. For overnight stays, this place is fine. For extended stays, look elsewhere.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r262164372-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>262164372</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Very comfy and inviting</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and goes above and beyond for every guest. Always greeting you by your name and when I had to come over from a place next door I was frantic and Joii checked me into a very clean room that was spacious I couldn't have been happier and calmed my nerves with her nice conversation. The next day I met the assistant manager Spencer and his morning front desk staff Zee and Aurelia, I felt so welcomed and like I was visiting old friends. This home away from home is perfect for anyone wanting to do a stay-cay or in transition into a new home. I highly recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and goes above and beyond for every guest. Always greeting you by your name and when I had to come over from a place next door I was frantic and Joii checked me into a very clean room that was spacious I couldn't have been happier and calmed my nerves with her nice conversation. The next day I met the assistant manager Spencer and his morning front desk staff Zee and Aurelia, I felt so welcomed and like I was visiting old friends. This home away from home is perfect for anyone wanting to do a stay-cay or in transition into a new home. I highly recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r249337529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>249337529</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Dirty Dirty Dirty</t>
+  </si>
+  <si>
+    <t>The room in general was not clean. From a dirty bathroom, to food left inside, to dirty dishes. The elevator is nasty with the same dirt on the floor for days! The emergency exit sign on the door to our room was not even for our room but a room on a totally different floor, and the fridge opened in the opposite direction making cooking difficult. My room was a "non" smoking room, but we found cigarette butts in the window.  We were not at all impressed and wished that we had gone next door to the Suburban Stay instead. I did mark 1 star because one good thing this hotel has going for it is that the staff is really nice and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>The room in general was not clean. From a dirty bathroom, to food left inside, to dirty dishes. The elevator is nasty with the same dirt on the floor for days! The emergency exit sign on the door to our room was not even for our room but a room on a totally different floor, and the fridge opened in the opposite direction making cooking difficult. My room was a "non" smoking room, but we found cigarette butts in the window.  We were not at all impressed and wished that we had gone next door to the Suburban Stay instead. I did mark 1 star because one good thing this hotel has going for it is that the staff is really nice and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r233108927-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>233108927</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Safe, Clean, Great Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.
+If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) 
+Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. 
+Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.
+Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.
+Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. 
+Internet: If you want to stream hulu on high quality at...We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. Internet: If you want to stream hulu on high quality at night pay for the faster internet, if you are okay with low quality and buffering occasionally go with free but I will say busy season always go with paid in the summer we could not stream low quality with free. If you have a device that doesn't go to internet browser like a bluray player, you have to call to get it connected and can only go with free internet I could watch things on the amazon app without too much buffering.Staff: Very professional, no one was ever rude or disrespectful not once in 5 whole months. No matter what I needed or how long they had been working or no matter what time if night or day. No one stole anything from my room which was a real concern of mine reading other hotels reviews.Location: about 30 min from Dallas, only an exit away from the mall, a few blocks away from a super target, Ross and chuckie cheese. About 9 min to Wal-Mart, postoffice and the library. Lots of parks, fields and trails you can pick up the map of them all at the community center across from the library or online. Really a great area.Tips: Fridge thermometer it's like $2 at walmart even on the lowest setting after a few days my freezer would completely freeze over and stop blowing to the fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.
+If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) 
+Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. 
+Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.
+Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.
+Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. 
+Internet: If you want to stream hulu on high quality at...We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. Internet: If you want to stream hulu on high quality at night pay for the faster internet, if you are okay with low quality and buffering occasionally go with free but I will say busy season always go with paid in the summer we could not stream low quality with free. If you have a device that doesn't go to internet browser like a bluray player, you have to call to get it connected and can only go with free internet I could watch things on the amazon app without too much buffering.Staff: Very professional, no one was ever rude or disrespectful not once in 5 whole months. No matter what I needed or how long they had been working or no matter what time if night or day. No one stole anything from my room which was a real concern of mine reading other hotels reviews.Location: about 30 min from Dallas, only an exit away from the mall, a few blocks away from a super target, Ross and chuckie cheese. About 9 min to Wal-Mart, postoffice and the library. Lots of parks, fields and trails you can pick up the map of them all at the community center across from the library or online. Really a great area.Tips: Fridge thermometer it's like $2 at walmart even on the lowest setting after a few days my freezer would completely freeze over and stop blowing to the fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r227122054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>227122054</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>Krystal and her staff were exemplary of what a hospitality venue should be.They went above and beyond daily to make my relocation experience stress free, and my dog loved them too.  I recommend this very clean and comfortable hotel to anyone I felt safe and truly cared about.  Krystal should train every employee with this company nationwide on how to give a guest experience from the heart.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r211538453-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>211538453</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable stay, still room for improvement</t>
+  </si>
+  <si>
+    <t>We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.
+The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.
+Items of note for improvements:  
+Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.
+In the mornings, a take n’ go breakfast is offered in the lobby.  It is...We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.Items of note for improvements:  Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.In the mornings, a take n’ go breakfast is offered in the lobby.  It is not a great selection, but it does offer coffee/tea/hot chocolate, oatmeal packets, breakfast bars, muffins and whole fruits. Overall, with the exception of the creepy crawly, the stay was good and I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.
+The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.
+Items of note for improvements:  
+Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.
+In the mornings, a take n’ go breakfast is offered in the lobby.  It is...We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.Items of note for improvements:  Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.In the mornings, a take n’ go breakfast is offered in the lobby.  It is not a great selection, but it does offer coffee/tea/hot chocolate, oatmeal packets, breakfast bars, muffins and whole fruits. Overall, with the exception of the creepy crawly, the stay was good and I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r195816630-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>195816630</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Mandy P       "Our Second home in Lewisville"</t>
+  </si>
+  <si>
+    <t>Our stay was for 7 months. Thank God for ESA.  Everyone was wonderful and it felt like home. They did everything they could to make your stay as easy and pleasant as possible. We were building a new home, when we had a severe car accident, my husband was in the hospital, lost the vision in one eye. He then had a heart attack.  But no matter what, the staff was there for us.  Our pets were safe and with us and it really became Home!  Krystal was wonderful and she has a staff behind her that are the best.  Shelley, Aurelia, Jonathon, Spencer and the late night laundry ladies that you rarely get to meet.  You can always count on the clean linens and anything else you might need, within reason.  I miss them all very much.  My only complaint has nothing to do with the Hotel Staff, you NEED self opening doors on the front, it is very difficult for handicapped and anyone trying to bring in luggage.   Mandy PMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Our stay was for 7 months. Thank God for ESA.  Everyone was wonderful and it felt like home. They did everything they could to make your stay as easy and pleasant as possible. We were building a new home, when we had a severe car accident, my husband was in the hospital, lost the vision in one eye. He then had a heart attack.  But no matter what, the staff was there for us.  Our pets were safe and with us and it really became Home!  Krystal was wonderful and she has a staff behind her that are the best.  Shelley, Aurelia, Jonathon, Spencer and the late night laundry ladies that you rarely get to meet.  You can always count on the clean linens and anything else you might need, within reason.  I miss them all very much.  My only complaint has nothing to do with the Hotel Staff, you NEED self opening doors on the front, it is very difficult for handicapped and anyone trying to bring in luggage.   Mandy PMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r188719098-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>188719098</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We try to stay at this hotel each time we come to the Lewisville area. The staff is courteous, helpful, &amp; very professional. The rooms are clean; I have never seen any bugs in any area. I feel safe in this hotel; we are an older couple so that is very important to us.  I really enjoy staying here. If II have any special request, the staff tries to help me any way they can.  The grab &amp; go is really nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2013</t>
+  </si>
+  <si>
+    <t>We try to stay at this hotel each time we come to the Lewisville area. The staff is courteous, helpful, &amp; very professional. The rooms are clean; I have never seen any bugs in any area. I feel safe in this hotel; we are an older couple so that is very important to us.  I really enjoy staying here. If II have any special request, the staff tries to help me any way they can.  The grab &amp; go is really nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r188363529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>188363529</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Easy Going</t>
+  </si>
+  <si>
+    <t>What A nice staff and clean room.Thanks everone at extended stay Lewisville. Couldn't ask for more for the price. The grab and go was always there for a morning kick start. Plenty parking secure  area always quiet. I35 right next door makes getting too airport easy going. And if you come here got too try RAZOOS walk next door  great cagune food for a decent price. agin thanks for A verry nice stay   felt like A home away from home    James Spicer</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r177320515-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>177320515</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Soooo good for the price!</t>
+  </si>
+  <si>
+    <t>I just can't stay anywhere else when I have to go to Dallas. It's like going to my second home. The staff is very friendly  and the location its great. I think it is really good for the price.I will come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2013</t>
+  </si>
+  <si>
+    <t>I just can't stay anywhere else when I have to go to Dallas. It's like going to my second home. The staff is very friendly  and the location its great. I think it is really good for the price.I will come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r172574355-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>172574355</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>9 Days...home away from home</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.
+Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! 
+I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! 
+We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five...My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five minutes!Someone has complained about the sound of loud music from the nearby Razzoos on Thursday nights keeping them awake all night. But during our 9 days stay, we did not hear any music on Thursday night! Probably, after many complaints, The Razzoos had decided to turn down the volume!! Not sure...but we had a quiet and comfortable night on Thursday, and every night. The room was well furnished;  the bed had just the type of hard mattress that we are used to at home in view of our back problems. So that was very welcome to us! I have to mention Aroya, one of the staff with the most charming personality and helping attitude! Although the  full room cleaning service was free once a week, when I requested an additional mid week service at the cost of $5 as advertised, Aroya smiled and said not to worry, and then went ahead and ordered the service free of cost! These are the small kind gestures that we will always remember. In fact every interaction we had with the staff was extremely friendly and satisfying! We felt like they are all our family!! We will definitely come back to stay here, whenever we visit this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.
+Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! 
+I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! 
+We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five...My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five minutes!Someone has complained about the sound of loud music from the nearby Razzoos on Thursday nights keeping them awake all night. But during our 9 days stay, we did not hear any music on Thursday night! Probably, after many complaints, The Razzoos had decided to turn down the volume!! Not sure...but we had a quiet and comfortable night on Thursday, and every night. The room was well furnished;  the bed had just the type of hard mattress that we are used to at home in view of our back problems. So that was very welcome to us! I have to mention Aroya, one of the staff with the most charming personality and helping attitude! Although the  full room cleaning service was free once a week, when I requested an additional mid week service at the cost of $5 as advertised, Aroya smiled and said not to worry, and then went ahead and ordered the service free of cost! These are the small kind gestures that we will always remember. In fact every interaction we had with the staff was extremely friendly and satisfying! We felt like they are all our family!! We will definitely come back to stay here, whenever we visit this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r168904195-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>168904195</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Pleasent stay</t>
+  </si>
+  <si>
+    <t>Traveled lewisville on a business visit and stayed at this place. Very courteous staff. Room was very clean and well maintained. Overall the stay was very pleasant. It would have been good if an in house restaurant facility was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Traveled lewisville on a business visit and stayed at this place. Very courteous staff. Room was very clean and well maintained. Overall the stay was very pleasant. It would have been good if an in house restaurant facility was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r159446866-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>159446866</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Loitering problem in lobby.....Nice Room-Updated</t>
+  </si>
+  <si>
+    <t>I stayed two nights here and rooms were great and newly updated. AC blows cold and water gets hot. My only concerns were the people hanging around in the lobby for several hours both nights drinking. Management should keep them out of there since there are rooms close by. I also was on a non smoking hall, and i'm pretty sure there were a couple of rooms that were smoking in there anyway. One other note, when leaving this morning, I noticed a police officer taking a report from one of the workers. I don't know what that was about, but it's a bit concerning. If these two issues weren't there, I would have given a better rating.P.S. They should add Fox Sports Southwest to channel lineup. Most Tx Rangers games are aired on that channelMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>I stayed two nights here and rooms were great and newly updated. AC blows cold and water gets hot. My only concerns were the people hanging around in the lobby for several hours both nights drinking. Management should keep them out of there since there are rooms close by. I also was on a non smoking hall, and i'm pretty sure there were a couple of rooms that were smoking in there anyway. One other note, when leaving this morning, I noticed a police officer taking a report from one of the workers. I don't know what that was about, but it's a bit concerning. If these two issues weren't there, I would have given a better rating.P.S. They should add Fox Sports Southwest to channel lineup. Most Tx Rangers games are aired on that channelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r159306512-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>159306512</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Just Excellent for the price!</t>
+  </si>
+  <si>
+    <t>I really liked the the hotel for the price, people there was so frienly, it is good located and newly renovated . The rooms were good size and the pillows so soft.they invest in a flat screen tv. I will come back next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2013</t>
+  </si>
+  <si>
+    <t>I really liked the the hotel for the price, people there was so frienly, it is good located and newly renovated . The rooms were good size and the pillows so soft.they invest in a flat screen tv. I will come back next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r157454151-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>157454151</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  
+My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were...I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were very old and did not work well.  There was 6 dryers and they worked fine.  I opted out and went to a laundromat after 2 bad experiences.  Really annoying and time consuming.  I must say I enjoyed my time spent at Extended Stay much more then I have at many other long term hotels.  I would recommend it to others needing a long term place to stay that does not break the bank.  The 2 issues I had are easily fixable.  When I travel room cleanliness, safety and price are key factors and they definitely met my expectations.  The friendly staff was a lovely added bonus!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  
+My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were...I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were very old and did not work well.  There was 6 dryers and they worked fine.  I opted out and went to a laundromat after 2 bad experiences.  Really annoying and time consuming.  I must say I enjoyed my time spent at Extended Stay much more then I have at many other long term hotels.  I would recommend it to others needing a long term place to stay that does not break the bank.  The 2 issues I had are easily fixable.  When I travel room cleanliness, safety and price are key factors and they definitely met my expectations.  The friendly staff was a lovely added bonus!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154467105-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>154467105</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>We stayed about 2 weeks and the staff was always extremely friendly and helpful. The Grab and Go breakfast was terrific - always hot coffee, and choices of oatmeal, and fresh fruit - Excellent! We stayed in both upstairs and downstairs and both were great. Our small dog was always greeted with smiles - and she enjoyed her playful new friend Oscar! We would certainly recommend the Extended Stay America - and the new remodeled rooms are terrific. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>We stayed about 2 weeks and the staff was always extremely friendly and helpful. The Grab and Go breakfast was terrific - always hot coffee, and choices of oatmeal, and fresh fruit - Excellent! We stayed in both upstairs and downstairs and both were great. Our small dog was always greeted with smiles - and she enjoyed her playful new friend Oscar! We would certainly recommend the Extended Stay America - and the new remodeled rooms are terrific. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154367984-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>154367984</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>First visit to texas, Great place to stay</t>
+  </si>
+  <si>
+    <t>Won a bid on line for two nights, cute cozy room with kitchen.  Staff Monigue,Tim, Krystal were helpful and nice .  Like the stay booked two more nights. Every thing from shopping, eating right around the corner. Quit hotel.  They allow dogs which was nice to no for the future.   I attend to return this summer and hope i can win another room online. Thank u staff enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Won a bid on line for two nights, cute cozy room with kitchen.  Staff Monigue,Tim, Krystal were helpful and nice .  Like the stay booked two more nights. Every thing from shopping, eating right around the corner. Quit hotel.  They allow dogs which was nice to no for the future.   I attend to return this summer and hope i can win another room online. Thank u staff enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r151225230-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>151225230</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel.</t>
+  </si>
+  <si>
+    <t>This was my first time ever at an extended stay. I stayed here recently for one night while in town on business. The hotel is newer and is very clean and the room was large. The staff I interacted with were all very nice and accommodating. The hotel is in a fantastic location and is close to a Super Target, fast food, shopping, sit-down restaurants, and the highway. This hotel may not be the best place to stay short-term (1-2 nights) because it is geared for guests staying for long periods of time. For example, there is no business center or substantial breakfast. Therefore, I don't think I would use this hotel when traveling for short periods of time on business, but I would certainly consider it if I planned to be in Lewisville long-term.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded February 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2013</t>
+  </si>
+  <si>
+    <t>This was my first time ever at an extended stay. I stayed here recently for one night while in town on business. The hotel is newer and is very clean and the room was large. The staff I interacted with were all very nice and accommodating. The hotel is in a fantastic location and is close to a Super Target, fast food, shopping, sit-down restaurants, and the highway. This hotel may not be the best place to stay short-term (1-2 nights) because it is geared for guests staying for long periods of time. For example, there is no business center or substantial breakfast. Therefore, I don't think I would use this hotel when traveling for short periods of time on business, but I would certainly consider it if I planned to be in Lewisville long-term.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r149902033-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>149902033</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Great extended stay hotel in Lewisville, TX!!!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at this extended hotel in Lewisville, TX several times.  It is a super clean, friendly place very close to many stores, Vista Ridge Mall and nice restaurants.  It is an easy drive to both Dallas airports and I35.  The manager, Krystal Carter, is very friendly and very helpful.  The entire staff is more than willing to respond to any issues you have and they are most knowledgable about the Dallas area.  The hotel rooms are a nice size with fully furnished kitchens - everything works!!!!    I highly recommend this hotel to anyone staying one night or one year - the staff is the best!!!!!  As with any extended stay hotel, you must furnish your own shampoo, hair dryer, and personal items.  If you have a problem, be sure Krystal and her staff will find a solution.  They are the best of the best!!!  It can't get better than this for the price!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this extended hotel in Lewisville, TX several times.  It is a super clean, friendly place very close to many stores, Vista Ridge Mall and nice restaurants.  It is an easy drive to both Dallas airports and I35.  The manager, Krystal Carter, is very friendly and very helpful.  The entire staff is more than willing to respond to any issues you have and they are most knowledgable about the Dallas area.  The hotel rooms are a nice size with fully furnished kitchens - everything works!!!!    I highly recommend this hotel to anyone staying one night or one year - the staff is the best!!!!!  As with any extended stay hotel, you must furnish your own shampoo, hair dryer, and personal items.  If you have a problem, be sure Krystal and her staff will find a solution.  They are the best of the best!!!  It can't get better than this for the price!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r148505733-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>148505733</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Very impressed!!!!</t>
+  </si>
+  <si>
+    <t>This hotel has been so good to me. Needed a place to stay for a week and they took such good care of me and my daughter! The staff is beyond some of the kindest and friendliest people ive ever came across staying at hotels. This is one of my favorites from now on. MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has been so good to me. Needed a place to stay for a week and they took such good care of me and my daughter! The staff is beyond some of the kindest and friendliest people ive ever came across staying at hotels. This is one of my favorites from now on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r132691041-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>132691041</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Best Extended Stay EVER..</t>
+  </si>
+  <si>
+    <t>Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.
+Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!
+The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!
+I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.
+I wish I had gotten the names of each of the hotel...Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.I wish I had gotten the names of each of the hotel staff I dealt with, unfortunately I didn't..but I just want to say thank you so much Extended Stay America in Lewisville, for making my time in a hotel feel happy, free, comfortable, extremely clean and very enjoyable.I WILL be back as soon as possible.Ps.  Management is willing to work with you for longer length stays.  Unfortunately the rate was about 5 dollars a night more than I could afford, but I do appreciate her taking the time to work with me.  That says alot!  Kuddos to this hotel.  If you can get in to this one..  I recommend it without hesitation or reservation.I wish my camera had not broken.  I wanted to share photos, but I was unable to.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.
+Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!
+The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!
+I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.
+I wish I had gotten the names of each of the hotel...Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.I wish I had gotten the names of each of the hotel staff I dealt with, unfortunately I didn't..but I just want to say thank you so much Extended Stay America in Lewisville, for making my time in a hotel feel happy, free, comfortable, extremely clean and very enjoyable.I WILL be back as soon as possible.Ps.  Management is willing to work with you for longer length stays.  Unfortunately the rate was about 5 dollars a night more than I could afford, but I do appreciate her taking the time to work with me.  That says alot!  Kuddos to this hotel.  If you can get in to this one..  I recommend it without hesitation or reservation.I wish my camera had not broken.  I wanted to share photos, but I was unable to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r24325727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>24325727</t>
+  </si>
+  <si>
+    <t>02/06/2009</t>
+  </si>
+  <si>
+    <t>Great Service at Very Good Prices</t>
+  </si>
+  <si>
+    <t>Was given directions courteously over the phone and when I arrived was booked quickly and efficiently. Very good service at front desk. The room was clean and pleasant and had a full service kitchen which was a great help since I am unfamiliar with the area. Everything you could need was supplied in the kitchen area, desk with internet available, comfortable easy chair to read in. The bed was comfortable and the tv worked well, easy to understand information for channel selection.I will definitely stay there again. I had stayed two weeks previously in a different hotel for close to double the price. (It had NO kitchen, not as conveniently located, and not such friendly staff as at Extended Stay Suites.) I have already recommended this to several of my friends who travel to Dallas area regularly for business conferences and seminars.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Was given directions courteously over the phone and when I arrived was booked quickly and efficiently. Very good service at front desk. The room was clean and pleasant and had a full service kitchen which was a great help since I am unfamiliar with the area. Everything you could need was supplied in the kitchen area, desk with internet available, comfortable easy chair to read in. The bed was comfortable and the tv worked well, easy to understand information for channel selection.I will definitely stay there again. I had stayed two weeks previously in a different hotel for close to double the price. (It had NO kitchen, not as conveniently located, and not such friendly staff as at Extended Stay Suites.) I have already recommended this to several of my friends who travel to Dallas area regularly for business conferences and seminars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r16668651-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>16668651</t>
+  </si>
+  <si>
+    <t>06/04/2008</t>
+  </si>
+  <si>
+    <t>Best customer service ever!</t>
+  </si>
+  <si>
+    <t>A few weeks ago, we had a very close family member pass away.  So we immediately packed up for the 1,000 mile trip down to Texas.  We knew that other family members were staying at the Extended Stay but we accidently booked the hotel next door (Suburban Extended Stay).  We were planning on dealing with this minor setback when we were contacted by the people of the Extended Stay.  They helped us to switch hotels so that we could be close to our family.  Not only did they go through all of that, but they also helped to give a really great deal.  We were there for a week and not a day went by that someone didn't ask us how we were doing or if we needed anything.  Everytime we saw them, they were always so caring.  I have never seen customer service like this in my life.  This was a really dark experience that our family went through but I'm glad that they were there to help make it a  little easier.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>A few weeks ago, we had a very close family member pass away.  So we immediately packed up for the 1,000 mile trip down to Texas.  We knew that other family members were staying at the Extended Stay but we accidently booked the hotel next door (Suburban Extended Stay).  We were planning on dealing with this minor setback when we were contacted by the people of the Extended Stay.  They helped us to switch hotels so that we could be close to our family.  Not only did they go through all of that, but they also helped to give a really great deal.  We were there for a week and not a day went by that someone didn't ask us how we were doing or if we needed anything.  Everytime we saw them, they were always so caring.  I have never seen customer service like this in my life.  This was a really dark experience that our family went through but I'm glad that they were there to help make it a  little easier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r13817775-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>13817775</t>
+  </si>
+  <si>
+    <t>02/24/2008</t>
+  </si>
+  <si>
+    <t>Loved Extended Stay America (Lewisville)</t>
+  </si>
+  <si>
+    <t>I travel constantly for my profession. However, this was my first trip to the DFW area. My company booked my reservations at the extended stay lewisville. Upon check-in I received nothing but great service from the front desk staff. They provided me with all sorts of helpful information that helped make my first trip to DFW a memorable and enjoyable one.  The rooms and hotel was clean, but I had to write this review for the awesome customer service experience provided to me by the staff. I would definitely stay there again if my job brings me back to texas!</t>
+  </si>
+  <si>
+    <t>February 2008</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2018,3592 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>286</v>
+      </c>
+      <c r="X30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="O32" t="s">
+        <v>304</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" t="s">
+        <v>372</v>
+      </c>
+      <c r="L41" t="s">
+        <v>373</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>382</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>399</v>
+      </c>
+      <c r="X44" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>416</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>417</v>
+      </c>
+      <c r="X46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>435</v>
+      </c>
+      <c r="J49" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>439</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>440</v>
+      </c>
+      <c r="X49" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s">
+        <v>304</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>448</v>
+      </c>
+      <c r="X50" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>456</v>
+      </c>
+      <c r="X51" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>464</v>
+      </c>
+      <c r="O52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>465</v>
+      </c>
+      <c r="X52" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>468</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>469</v>
+      </c>
+      <c r="J53" t="s">
+        <v>470</v>
+      </c>
+      <c r="K53" t="s">
+        <v>471</v>
+      </c>
+      <c r="L53" t="s">
+        <v>472</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>473</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" t="s">
+        <v>477</v>
+      </c>
+      <c r="K54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s">
+        <v>479</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>480</v>
+      </c>
+      <c r="O54" t="s">
+        <v>114</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>482</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>483</v>
+      </c>
+      <c r="J55" t="s">
+        <v>484</v>
+      </c>
+      <c r="K55" t="s">
+        <v>485</v>
+      </c>
+      <c r="L55" t="s">
+        <v>486</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>487</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ZacharyBrown</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The manager Sergio is a joke. So unprofessional and disrespectful. He would not own up to the fact that they messed up my deposit. He tried to call the police, lied and told them I was harassing him and would not leave when he would not answer my questions about my bill. The place always smells stale and dirty. It takes hours just to get new towels or any kind of help. The heater does not work. Sergio will also hound you for a "10" rating/review which is ridiculous. The whole staff and management should be replaced with people who knows how to give great guest customer service. Marriott would never be such a mess. Oh and I still have yet to receive my deposit from them.More</t>
   </si>
   <si>
+    <t>brittanyt2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r551141309-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>This is the worst hotel ever!!! The staff was rude. The manager was rude! The room was below expectations. The staff that was there late at night did not know how to do anything. Maintenance was not there. We were freezing in our room for hours! When I contacted the front desk after 20 attempts he proceeded to say there was nothing they could do so we had to get out or the police was going to get called stated the manager Sergio!More</t>
   </si>
   <si>
+    <t>douglaswendellw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r547781911-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>The stay was very nice. Check-in staff seemed to have an attitude when I informed them that I felt ignored while waiting for 20+ minutes to see if I could check-in early. I was informed that thee is a $25 fee for checking-in early.More</t>
   </si>
   <si>
+    <t>Lo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r531184549-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>No one answered phone, even from room...busy signalDrove there and went in, no one at deskHall smells awful, put towel under door and opened perfume bottleNo ice bucket no coffee maker , no cupshair in the tub a ring around the toilet kids running up and down the Halls screaming , dog barking continual for hoursFuzzy TV reception and was only on narrow aspect could not change it to normalYou have to pay extra to get a non-smoking roomDog barked nonstop for hoursBreakfast, instant oatmeal packet lolMore</t>
   </si>
   <si>
+    <t>Ann-Marrie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r528880257-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>A total nightmare from the day the GM named Sergio arrived. Extremely unprofessional, underhanded staff other than the long term employees. Thank you Miss. Peggy, Miss. Jo-Anne, Manuel and Miss. Sylvia.  Christie the "lead" is even worse. Double charged us for upgrading Internet. I had to email Corporate because of their refusal to have pest control return for roaches and the day prior to checkout deleted our coupons due at checkout AND our $100 deposit. My suggestion, record your conversation as I have in order to get your money back in court! Side note, it's absolutely legal in the State of Texas. Educate yourself. As a form of retaliation the GM named Sergio called the police on me when I pressed play. Imagine how I felt that there was a need to press record?More</t>
   </si>
   <si>
+    <t>Josh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r526405400-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Upon my stay at Extended Stay America Dallas Lewisville I was treated with kindness and was shown very good hospitality I recommend that anybody or everybody should stay here at least for one weekend I was told about some places to go and eat in the surrounding area and was very exceptional to the staff here and the cleanliness of the place is very very very clean I know if I come back I will definitely be staying here again very spacious and Roomy Room very clean in the room all I know is very happy with my stayMore</t>
   </si>
   <si>
+    <t>tito_jones95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r523638540-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Francis and Christie both are two very caring awesome individuals ! Felt like home because of these two ladies took very good care of me and my co workers, I will definitely recommend this extended stay and will return - room 204More</t>
   </si>
   <si>
+    <t>E4989NGaaronm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r510223359-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Horrible I will never recommend or come back to this place ever! Me and my wife left immediately without saying bye to anyway thats how horrible it was! We left out the back door after being in the room for like 20 minutes!More</t>
   </si>
   <si>
+    <t>adrianag520</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r509908763-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Good hotel for the price, but need improve the check in, the deposit return, etc.  Some days since then and the return of the deposit, still not in my account (better to ask in cash, and return in cash)   Host gentil, but very long the check in, (insist)More</t>
   </si>
   <si>
+    <t>R7175DHmarkt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r508748611-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>We enjoyed very much our stay at Extended Stay America - Lewisville - Sergio, the manager was great, so was his staff: very accommodating, nice and helpful. We would definitely return in the future.We recommenced this place. Clean rooms and utensils.More</t>
   </si>
   <si>
+    <t>georgewD992JT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r506474411-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -448,6 +481,9 @@
   </si>
   <si>
     <t>Hotel was dirty. From elevator to halls to trash behind nightstand in room.  Staff unprofessional.  Breakfast in doorway.  People always hanging out smoking at door even though sign said 15 feet of non smoking.  Venthood not installed so you couldn't prepare meal without smoke alarm going off.More</t>
+  </si>
+  <si>
+    <t>James L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r504922032-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -479,6 +515,9 @@
 That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying...Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying to keep up with the hotel standards here. Guess what? it doesn't stop at just re-flooring. When you say "you spent enough for the improvements at this location" are you saying so thinking about your guest? It certainly doesn't seem so. I've been at this location for 3 months now. When I first got here all 6 dryers were working. Then after the first month 1 dryer went down. Then 2 then 3...So on, and so forth. Now, months later, a fifth one (5 out of 6) is about to go down. You can hear it. Let me ask you of those who run the chain, and are in charge of the DFW area Extend ed Stay America...Are you sure your in the right business? The business of hospitality? Spend some money. Reinvest in what makes you money, other wise your going to lose. Customer will stop coming to your chain. I don't care how cheap you make it. I'd hate to think about being the person at the front desk and having everyone complain that they can't use the laundry facility you call an "amenity" because your appliances wear out, and you don't pay to fix or replace them. Get a clue!!!!More</t>
   </si>
   <si>
+    <t>Nick P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500925921-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -503,6 +542,9 @@
     <t>I had a great stay while I was in Dallas and the front desk staff, Christie and Peggy were very polite and handled any of my needs without an attitude or any bad body language. Thanks a lot guys, I would stay again and recommend this hotel to anyone in the area staying. More</t>
   </si>
   <si>
+    <t>susan s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500902343-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -521,6 +563,9 @@
     <t>Staff is always helpful from Jo Ann,  Shamel, Sylvia, to Peggy, and Frances, all the way to Chris and Christy have a friendly word or assistance to everyone. They have made me and my family including our dog as comfortable as possible.  More</t>
   </si>
   <si>
+    <t>heatherbear2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500249201-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -545,6 +590,9 @@
     <t>No bugs, bathroom was very clean, location is safe, and they care about keeping the place decent.  I would defiantly stay there again.  Only negatives during my stay was the room smelled heavily of mildew and smoke; the room was a non smoking room.  More</t>
   </si>
   <si>
+    <t>Brenda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r496520098-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -569,6 +617,9 @@
     <t>Initial issue with reservation made one month prior through 800 number but Manager Christie expertly handled.  In corporate district and close to several restaurants and interstate highway.  Would stay again if in the area and needed long term accommodations.More</t>
   </si>
   <si>
+    <t>jesse132017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r495614653-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -593,6 +644,9 @@
     <t>Rude manager, smelled like dog piss when you stepped in the door. Advertise they will bring you your kitchen equipment but don't. My door wouldn't just open I had to fight with it. The toilet drained all night and was never fixed. It was a rather unpleasant stay overall. Not all of the staff was rude just the manager.More</t>
   </si>
   <si>
+    <t>ahmathews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r479733966-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -617,6 +671,9 @@
     <t>Facility very clean and staff very friendly and helpful. I left my makeup bag in the room and was hundreds of miles away when I noticed my bag missing. I immediately called the manager, he found my bag then mailed it to me!! So thankful to them!!More</t>
   </si>
   <si>
+    <t>nana1355</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r476971054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -644,6 +701,9 @@
     <t>I put this review under the wrong location but my husband and i came to lewisville one weekend after heading towards memphis and needed a hotel in dallas because we were tired from the drive but every single hotel i went to was booked up not to mention rude and non caring ao finally after 2 and a half hours of searching i came across the extended stay i was ify at first but we were exhausted so we gave it a try and im glad we did i met with the guest representative Christie and she was very welcoming they were also booked up at the time but she not only managed to get me a room at the last minute but cleaned it up for us the room was very clean and she also pointed out some great restaurants across the stret which was very helpful because we were hungry and had been eating junk food the whole ride,so i would just like to say we will definently be stayin at the Extened Stay motels they have earned our business great customer service and a great first time experience thank you Ms.Christie and Extended stay staffSincerely Dianna GronadoMore</t>
   </si>
   <si>
+    <t>Erasmo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473489376-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -662,6 +722,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Christopher B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473480066-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -683,6 +746,9 @@
     <t>Very great reception - understanding and courteous. Well done. Hirmanshu Singh was very understanding of my last minute booking. The hotel is located in a good part of town and has restaurants nearby for convenience.More</t>
   </si>
   <si>
+    <t>Jerry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r472784509-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -707,6 +773,9 @@
     <t>Nice quiet place to stay while out of town on business. Restaurants near by. Shopping. And airport are all close. The staff was respectful and helpful. Could use another elevator at the other end. Lol.More</t>
   </si>
   <si>
+    <t>Aprflnn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r471118637-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -731,6 +800,9 @@
     <t>RUN!  This is horrible!  These ppl took money off my credit card without my knowledge. They claim I owed even though I paid ahead. Then they claimed I owed $150.00 in the middle of my stay for my dog even though I let them know ahead of time about her and she walked in with me!  They raised my rate in the middle of my stay without my knowledge because The first room had MOLD AND MILDEW! And they HAD to put me in one with a double bed!!  Also the smell of drugs is overwhelming. Run run run!More</t>
   </si>
   <si>
+    <t>s31890081</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r468704586-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -755,6 +827,9 @@
     <t>Have kitchen and bathroom. They have breakfast and hot water in lobby. Cleaning service every week. I will be back next travel time. Thanks those employ and manager care. I will be back next travel time.  More</t>
   </si>
   <si>
+    <t>TrevorThomasBye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r435348441-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -779,6 +854,9 @@
     <t>I described them earlier:- Front desk staff was rude, not attentive, socializing, cursing and cutting up with staff and other long-term guests- Broken shower: had to take a sponge bath - Front desk did not accommodate when we let them know shower did not work- Iron was broken: burned a dress shirt of mine- No light fixtures worked- Arrived over an hour after check-in time, had to still wait for 30 minutes- Front desk was not present so I couldn't properly check out. Had to leave because I was in a hurry- No breakfast: only oatmeal packets and lukewarm waterMore</t>
   </si>
   <si>
+    <t>walterschmuntz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r427646814-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -806,6 +884,9 @@
     <t>Lewisville Texas.  Definitely NOT a place I would recommend.  Overpriced for what you get.  Phones didn't work in room.  Not even a coffee pot in the room.  I will not return to Extended Stay America.  We reserved a second floor room and all they had waiting for us was a first floor, handicap room.More</t>
   </si>
   <si>
+    <t>Scott L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r418831569-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -833,6 +914,9 @@
     <t>Overflowing garbage can with hundreds of cigarette butts at entrance was what was waiting for my arrival. A group of guests congregate here and smoke and drink. Thet were friendly but how the Staff would allow the garbage and butts to overflow is a telling sign to the condition of this location. It needs help.More</t>
   </si>
   <si>
+    <t>brendajames03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r393712789-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -860,6 +944,9 @@
     <t>Experience was one of the worst ever.  We are traveling from OKC to Dallas area to catch an early morning flight.  Arrived later than expected in the evening due to construction on I-35 and a wreck.  Arrived at hotel at 1040 pm (office hours were posted to be until 1100pm).  The employee at the front desk was rude and was closing the door upon arrival (20 minutes earlier than posted).  Employee indicated my room keys were in a lockbox in the entry way.  We immediately attempted to unload luggage and employee would not let me enter through the front door.  My children and I had to walk around the building to a side entrance.  Again, all of this was before 11 pm (the posted closing time for the front office).  No paperwork was completed for check in.  Hotel was large and it took some time to find our room and when we did the room keys would not work  Attempted to contact the after hours number without any resolution to the matter.  Also saw a roach in the common area. Have phoned management but no resposnse yet either.  Stay at your own risk!!More</t>
   </si>
   <si>
+    <t>HLSNewMexico</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r382451727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -887,6 +974,9 @@
     <t>I only stayed one night here, then moved to a lovely Marriott nearby for the rest of my trip.  I have no idea how other reviewers could have rated this hotel any higher than 2 stars.  It stinks. It's old and dirty.  The dogs are annoying.  Did I mention it stinks?More</t>
   </si>
   <si>
+    <t>sassygirl321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r363996796-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1004,9 @@
     <t>Unfortunately the hotel allows dogs but does not have a dog station dispensing bags to clean up after dogs.  Nor are guests even asked to pick up after their dogs.  And no one on staff is doing it either.  So basically as you walk around outside there are piles of dog feces on almost every inch of grass.  This causes another problem... the smell is disgusting!!  Its horrible.  Its to bad cause the grounds are actually nice.  But can't get past how disgusting the smell &amp; sight of it is.The other problem is that even though the housekeepers did a fine job on my room, there are not enough staff.  The rooms may get cleaned but the hallways, stair wells, laundry room are ridiculously filthy. Hire more people &amp; clean up the dog poop!!!More</t>
   </si>
   <si>
+    <t>Stephanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r292483295-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -935,6 +1028,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Karen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r262164372-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1058,9 @@
     <t>The staff is very friendly and goes above and beyond for every guest. Always greeting you by your name and when I had to come over from a place next door I was frantic and Joii checked me into a very clean room that was spacious I couldn't have been happier and calmed my nerves with her nice conversation. The next day I met the assistant manager Spencer and his morning front desk staff Zee and Aurelia, I felt so welcomed and like I was visiting old friends. This home away from home is perfect for anyone wanting to do a stay-cay or in transition into a new home. I highly recommend this hotel to anyone. More</t>
   </si>
   <si>
+    <t>Nicole L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r249337529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1086,9 @@
   </si>
   <si>
     <t>The room in general was not clean. From a dirty bathroom, to food left inside, to dirty dishes. The elevator is nasty with the same dirt on the floor for days! The emergency exit sign on the door to our room was not even for our room but a room on a totally different floor, and the fridge opened in the opposite direction making cooking difficult. My room was a "non" smoking room, but we found cigarette butts in the window.  We were not at all impressed and wished that we had gone next door to the Suburban Stay instead. I did mark 1 star because one good thing this hotel has going for it is that the staff is really nice and accommodating.More</t>
+  </si>
+  <si>
+    <t>oaktrek</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r233108927-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1025,6 +1127,9 @@
 Internet: If you want to stream hulu on high quality at...We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. Internet: If you want to stream hulu on high quality at night pay for the faster internet, if you are okay with low quality and buffering occasionally go with free but I will say busy season always go with paid in the summer we could not stream low quality with free. If you have a device that doesn't go to internet browser like a bluray player, you have to call to get it connected and can only go with free internet I could watch things on the amazon app without too much buffering.Staff: Very professional, no one was ever rude or disrespectful not once in 5 whole months. No matter what I needed or how long they had been working or no matter what time if night or day. No one stole anything from my room which was a real concern of mine reading other hotels reviews.Location: about 30 min from Dallas, only an exit away from the mall, a few blocks away from a super target, Ross and chuckie cheese. About 9 min to Wal-Mart, postoffice and the library. Lots of parks, fields and trails you can pick up the map of them all at the community center across from the library or online. Really a great area.Tips: Fridge thermometer it's like $2 at walmart even on the lowest setting after a few days my freezer would completely freeze over and stop blowing to the fridge.More</t>
   </si>
   <si>
+    <t>rambleon2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r227122054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1146,9 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>FormerCaliBoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r211538453-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1078,6 +1186,9 @@
 In the mornings, a take n’ go breakfast is offered in the lobby.  It is...We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.Items of note for improvements:  Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.In the mornings, a take n’ go breakfast is offered in the lobby.  It is not a great selection, but it does offer coffee/tea/hot chocolate, oatmeal packets, breakfast bars, muffins and whole fruits. Overall, with the exception of the creepy crawly, the stay was good and I would stay again.More</t>
   </si>
   <si>
+    <t>Amanda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r195816630-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1243,9 @@
     <t>We try to stay at this hotel each time we come to the Lewisville area. The staff is courteous, helpful, &amp; very professional. The rooms are clean; I have never seen any bugs in any area. I feel safe in this hotel; we are an older couple so that is very important to us.  I really enjoy staying here. If II have any special request, the staff tries to help me any way they can.  The grab &amp; go is really nice too.More</t>
   </si>
   <si>
+    <t>james s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r188363529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1261,9 @@
     <t>What A nice staff and clean room.Thanks everone at extended stay Lewisville. Couldn't ask for more for the price. The grab and go was always there for a morning kick start. Plenty parking secure  area always quiet. I35 right next door makes getting too airport easy going. And if you come here got too try RAZOOS walk next door  great cagune food for a decent price. agin thanks for A verry nice stay   felt like A home away from home    James Spicer</t>
   </si>
   <si>
+    <t>Mariela R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r177320515-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1286,9 @@
   </si>
   <si>
     <t>I just can't stay anywhere else when I have to go to Dallas. It's like going to my second home. The staff is very friendly  and the location its great. I think it is really good for the price.I will come back soon.More</t>
+  </si>
+  <si>
+    <t>TrueBeing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r172574355-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1198,6 +1318,9 @@
 We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five...My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five minutes!Someone has complained about the sound of loud music from the nearby Razzoos on Thursday nights keeping them awake all night. But during our 9 days stay, we did not hear any music on Thursday night! Probably, after many complaints, The Razzoos had decided to turn down the volume!! Not sure...but we had a quiet and comfortable night on Thursday, and every night. The room was well furnished;  the bed had just the type of hard mattress that we are used to at home in view of our back problems. So that was very welcome to us! I have to mention Aroya, one of the staff with the most charming personality and helping attitude! Although the  full room cleaning service was free once a week, when I requested an additional mid week service at the cost of $5 as advertised, Aroya smiled and said not to worry, and then went ahead and ordered the service free of cost! These are the small kind gestures that we will always remember. In fact every interaction we had with the staff was extremely friendly and satisfying! We felt like they are all our family!! We will definitely come back to stay here, whenever we visit this area.More</t>
   </si>
   <si>
+    <t>Devadas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r168904195-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1346,9 @@
   </si>
   <si>
     <t>Traveled lewisville on a business visit and stayed at this place. Very courteous staff. Room was very clean and well maintained. Overall the stay was very pleasant. It would have been good if an in house restaurant facility was available.More</t>
+  </si>
+  <si>
+    <t>TRAVELBOY52</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r159446866-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1308,6 +1434,9 @@
 My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were...I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were very old and did not work well.  There was 6 dryers and they worked fine.  I opted out and went to a laundromat after 2 bad experiences.  Really annoying and time consuming.  I must say I enjoyed my time spent at Extended Stay much more then I have at many other long term hotels.  I would recommend it to others needing a long term place to stay that does not break the bank.  The 2 issues I had are easily fixable.  When I travel room cleanliness, safety and price are key factors and they definitely met my expectations.  The friendly staff was a lovely added bonus!!More</t>
   </si>
   <si>
+    <t>HarleyCowboyDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154467105-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1461,9 @@
     <t>We stayed about 2 weeks and the staff was always extremely friendly and helpful. The Grab and Go breakfast was terrific - always hot coffee, and choices of oatmeal, and fresh fruit - Excellent! We stayed in both upstairs and downstairs and both were great. Our small dog was always greeted with smiles - and she enjoyed her playful new friend Oscar! We would certainly recommend the Extended Stay America - and the new remodeled rooms are terrific. Thanks.More</t>
   </si>
   <si>
+    <t>audra651</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154367984-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1482,9 @@
     <t>Won a bid on line for two nights, cute cozy room with kitchen.  Staff Monigue,Tim, Krystal were helpful and nice .  Like the stay booked two more nights. Every thing from shopping, eating right around the corner. Quit hotel.  They allow dogs which was nice to no for the future.   I attend to return this summer and hope i can win another room online. Thank u staff enjoyed our stay.More</t>
   </si>
   <si>
+    <t>stallenjan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r151225230-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1512,9 @@
     <t>This was my first time ever at an extended stay. I stayed here recently for one night while in town on business. The hotel is newer and is very clean and the room was large. The staff I interacted with were all very nice and accommodating. The hotel is in a fantastic location and is close to a Super Target, fast food, shopping, sit-down restaurants, and the highway. This hotel may not be the best place to stay short-term (1-2 nights) because it is geared for guests staying for long periods of time. For example, there is no business center or substantial breakfast. Therefore, I don't think I would use this hotel when traveling for short periods of time on business, but I would certainly consider it if I planned to be in Lewisville long-term.More</t>
   </si>
   <si>
+    <t>Jill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r149902033-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1539,9 @@
     <t>I have stayed at this extended hotel in Lewisville, TX several times.  It is a super clean, friendly place very close to many stores, Vista Ridge Mall and nice restaurants.  It is an easy drive to both Dallas airports and I35.  The manager, Krystal Carter, is very friendly and very helpful.  The entire staff is more than willing to respond to any issues you have and they are most knowledgable about the Dallas area.  The hotel rooms are a nice size with fully furnished kitchens - everything works!!!!    I highly recommend this hotel to anyone staying one night or one year - the staff is the best!!!!!  As with any extended stay hotel, you must furnish your own shampoo, hair dryer, and personal items.  If you have a problem, be sure Krystal and her staff will find a solution.  They are the best of the best!!!  It can't get better than this for the price!!!!!!More</t>
   </si>
   <si>
+    <t>lyshap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r148505733-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +1564,9 @@
   </si>
   <si>
     <t>This hotel has been so good to me. Needed a place to stay for a week and they took such good care of me and my daughter! The staff is beyond some of the kindest and friendliest people ive ever came across staying at hotels. This is one of my favorites from now on. More</t>
+  </si>
+  <si>
+    <t>tinkerbtch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r132691041-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1460,6 +1604,9 @@
 I wish I had gotten the names of each of the hotel...Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.I wish I had gotten the names of each of the hotel staff I dealt with, unfortunately I didn't..but I just want to say thank you so much Extended Stay America in Lewisville, for making my time in a hotel feel happy, free, comfortable, extremely clean and very enjoyable.I WILL be back as soon as possible.Ps.  Management is willing to work with you for longer length stays.  Unfortunately the rate was about 5 dollars a night more than I could afford, but I do appreciate her taking the time to work with me.  That says alot!  Kuddos to this hotel.  If you can get in to this one..  I recommend it without hesitation or reservation.I wish my camera had not broken.  I wanted to share photos, but I was unable to.More</t>
   </si>
   <si>
+    <t>texasrosie1952</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r24325727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1628,9 @@
     <t>Was given directions courteously over the phone and when I arrived was booked quickly and efficiently. Very good service at front desk. The room was clean and pleasant and had a full service kitchen which was a great help since I am unfamiliar with the area. Everything you could need was supplied in the kitchen area, desk with internet available, comfortable easy chair to read in. The bed was comfortable and the tv worked well, easy to understand information for channel selection.I will definitely stay there again. I had stayed two weeks previously in a different hotel for close to double the price. (It had NO kitchen, not as conveniently located, and not such friendly staff as at Extended Stay Suites.) I have already recommended this to several of my friends who travel to Dallas area regularly for business conferences and seminars.More</t>
   </si>
   <si>
+    <t>CookieSalinas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r16668651-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1650,9 @@
   </si>
   <si>
     <t>A few weeks ago, we had a very close family member pass away.  So we immediately packed up for the 1,000 mile trip down to Texas.  We knew that other family members were staying at the Extended Stay but we accidently booked the hotel next door (Suburban Extended Stay).  We were planning on dealing with this minor setback when we were contacted by the people of the Extended Stay.  They helped us to switch hotels so that we could be close to our family.  Not only did they go through all of that, but they also helped to give a really great deal.  We were there for a week and not a day went by that someone didn't ask us how we were doing or if we needed anything.  Everytime we saw them, they were always so caring.  I have never seen customer service like this in my life.  This was a really dark experience that our family went through but I'm glad that they were there to help make it a  little easier.More</t>
+  </si>
+  <si>
+    <t>Jasonaldridge</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r13817775-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2022,43 +2175,47 @@
       <c r="A2" t="n">
         <v>42269</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2074,56 +2231,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42269</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2145,56 +2306,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42269</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2216,56 +2381,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42269</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2277,47 +2446,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42269</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2334,56 +2507,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42269</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>11040</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2395,56 +2572,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42269</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>96</v>
-      </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2456,56 +2637,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42269</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2527,56 +2712,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42269</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2598,56 +2787,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42269</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" t="s">
         <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2659,56 +2852,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42269</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178335</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2730,56 +2927,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42269</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2797,56 +2998,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42269</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2858,56 +3063,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42269</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>99861</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2919,56 +3128,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42269</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178336</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2990,56 +3203,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42269</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>48928</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3061,56 +3278,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42269</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178337</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3132,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42269</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178338</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3193,56 +3418,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42269</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3254,56 +3483,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42269</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178340</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3323,50 +3556,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42269</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>382</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3384,56 +3621,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42269</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>20726</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3445,56 +3686,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42269</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3506,56 +3751,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42269</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3567,56 +3816,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42269</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178343</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3632,56 +3885,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42269</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178344</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3699,56 +3956,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42269</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3766,56 +4027,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42269</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178345</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3833,56 +4098,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42269</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178346</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3898,56 +4167,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="X30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42269</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>71680</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3965,56 +4238,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42269</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>688</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4028,50 +4305,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42269</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>3267</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4083,56 +4364,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42269</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>2989</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4148,47 +4433,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42269</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178347</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4215,56 +4504,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42269</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178348</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4284,50 +4577,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42269</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178349</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4349,56 +4646,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42269</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>34674</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4420,56 +4721,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42269</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4491,56 +4796,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="X39" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42269</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>16623</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4564,41 +4873,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42269</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136093</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4625,56 +4938,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42269</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178350</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="O42" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4698,50 +5015,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42269</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>424</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4763,56 +5084,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="X43" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42269</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178352</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4834,56 +5159,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X44" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42269</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136093</v>
+      </c>
+      <c r="C45" t="s">
+        <v>407</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4905,56 +5234,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42269</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>71680</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4976,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42269</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178353</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="O47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5047,47 +5384,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42269</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178354</v>
+      </c>
+      <c r="C48" t="s">
+        <v>471</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5114,56 +5455,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="X48" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="Y48" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42269</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178355</v>
+      </c>
+      <c r="C49" t="s">
+        <v>478</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="J49" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="K49" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="L49" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5185,56 +5530,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="X49" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42269</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>8370</v>
+      </c>
+      <c r="C50" t="s">
+        <v>488</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="O50" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5256,47 +5605,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="X50" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42269</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178356</v>
+      </c>
+      <c r="C51" t="s">
+        <v>497</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -5323,56 +5676,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="X51" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="Y51" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42269</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178357</v>
+      </c>
+      <c r="C52" t="s">
+        <v>506</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="J52" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="O52" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5394,56 +5751,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="X52" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="Y52" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42269</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178358</v>
+      </c>
+      <c r="C53" t="s">
+        <v>516</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="J53" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="K53" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="L53" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="O53" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5467,50 +5828,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42269</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178359</v>
+      </c>
+      <c r="C54" t="s">
+        <v>524</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="J54" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="K54" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="L54" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="O54" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5534,50 +5899,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42269</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178360</v>
+      </c>
+      <c r="C55" t="s">
+        <v>532</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="J55" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="K55" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="L55" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5601,7 +5970,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_720.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="767">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,129 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>ZacharyBrown</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r601313979-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>106744</t>
+  </si>
+  <si>
+    <t>601313979</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Best Extended Stay in the Dallas Area</t>
+  </si>
+  <si>
+    <t>Due to long term work assignments I have stayed at several Extended Stays in the area, including the Lewisville location for several months now. Sergio the GM is conscientious about running the hotel in a professional manner and always takes care of any issues in a timely manner.   My housekeeper has been employed at the hotel for over ten years and always does a good job with the room.  The location is very convenient to I-35 and the DFW area.  Overall the staff does an excellent job.  In my humble opinion this is best run Extended Stay in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Due to long term work assignments I have stayed at several Extended Stays in the area, including the Lewisville location for several months now. Sergio the GM is conscientious about running the hotel in a professional manner and always takes care of any issues in a timely manner.   My housekeeper has been employed at the hotel for over ten years and always does a good job with the room.  The location is very convenient to I-35 and the DFW area.  Overall the staff does an excellent job.  In my humble opinion this is best run Extended Stay in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r547898005-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>547898005</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Best Accommodation yet</t>
+  </si>
+  <si>
+    <t>Dallas traffic can be a challenge but we were close to a Mall, food, pharmacy and gas station. Check in and out went smoothly. Coffee was available in the morning and staff was courteous with household itemsMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Dallas traffic can be a challenge but we were close to a Mall, food, pharmacy and gas station. Check in and out went smoothly. Coffee was available in the morning and staff was courteous with household itemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r590485233-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>590485233</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Had a comfort stay</t>
+  </si>
+  <si>
+    <t>i was on a business trip for a week's schedule in Dallas and i opted to stay in Extended Stay America to save expenses. It was around 60$ per night with Breakfast.It was like any other Extended Stay America branches in US with Average looks and okayish style of authenticity. If you love cooking this is for you. You will be given all the utensils for you to cook for yourselves. Kitchen is provided with the room.It was calm in the sorrounding, no noise or disturbances and close to many restaurants. Staff was good and cooperative for any query.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>i was on a business trip for a week's schedule in Dallas and i opted to stay in Extended Stay America to save expenses. It was around 60$ per night with Breakfast.It was like any other Extended Stay America branches in US with Average looks and okayish style of authenticity. If you love cooking this is for you. You will be given all the utensils for you to cook for yourselves. Kitchen is provided with the room.It was calm in the sorrounding, no noise or disturbances and close to many restaurants. Staff was good and cooperative for any query.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r571520500-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>571520500</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>I want my money back for deposit</t>
+  </si>
+  <si>
+    <t>They charged my card but tell me there is no record indicating it was charged even though I showed them my bank statement t with the charge. It has been over 2 days and nothing to me get . They said they would get the problem resolved but never did. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>They charged my card but tell me there is no record indicating it was charged even though I showed them my bank statement t with the charge. It has been over 2 days and nothing to me get . They said they would get the problem resolved but never did. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r563567842-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
-    <t>56161</t>
-  </si>
-  <si>
-    <t>106744</t>
-  </si>
-  <si>
     <t>563567842</t>
   </si>
   <si>
@@ -177,9 +285,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 1, 2018</t>
   </si>
   <si>
@@ -189,9 +294,6 @@
     <t>The manager Sergio is a joke. So unprofessional and disrespectful. He would not own up to the fact that they messed up my deposit. He tried to call the police, lied and told them I was harassing him and would not leave when he would not answer my questions about my bill. The place always smells stale and dirty. It takes hours just to get new towels or any kind of help. The heater does not work. Sergio will also hound you for a "10" rating/review which is ridiculous. The whole staff and management should be replaced with people who knows how to give great guest customer service. Marriott would never be such a mess. Oh and I still have yet to receive my deposit from them.More</t>
   </si>
   <si>
-    <t>brittanyt2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r551141309-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -207,9 +309,6 @@
     <t>This is the worst hotel ever!!! The staff was rude. The manager was rude! The room was below expectations. The staff that was there late at night did not know how to do anything. Maintenance was not there. We were freezing in our room for hours! When I contacted the front desk after 20 attempts he proceeded to say there was nothing they could do so we had to get out or the police was going to get called stated the manager Sergio!MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 7, 2018</t>
   </si>
   <si>
@@ -219,9 +318,6 @@
     <t>This is the worst hotel ever!!! The staff was rude. The manager was rude! The room was below expectations. The staff that was there late at night did not know how to do anything. Maintenance was not there. We were freezing in our room for hours! When I contacted the front desk after 20 attempts he proceeded to say there was nothing they could do so we had to get out or the police was going to get called stated the manager Sergio!More</t>
   </si>
   <si>
-    <t>douglaswendellw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r547781911-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -249,7 +345,55 @@
     <t>The stay was very nice. Check-in staff seemed to have an attitude when I informed them that I felt ignored while waiting for 20+ minutes to see if I could check-in early. I was informed that thee is a $25 fee for checking-in early.More</t>
   </si>
   <si>
-    <t>Lo M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r541420885-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>541420885</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Not satisfied with the stay. Extremely smelly. Not recommending to stay woth kids.</t>
+  </si>
+  <si>
+    <t>Also immediately after i entered the room there was a fire alarm ,  some one in my floor burned something while cooking. Its beckme too noise and fire engine came. As mentioned we were expected utensils not there at that time. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Also immediately after i entered the room there was a fire alarm ,  some one in my floor burned something while cooking. Its beckme too noise and fire engine came. As mentioned we were expected utensils not there at that time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r540399133-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>540399133</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Disappointed!</t>
+  </si>
+  <si>
+    <t>I have stayed at several extended stay America's because it's very affordable. This one did not meet average expectations. I booked my room online and got a great price. We checked in late (10pm) and I had called prior and asked for a room with a double bed which I got. It was a handicap accessible room. Very large. I don't feel like the room was cleaned well because I found a toy on the floor. Also after my daughter had went to sleep I went in the bathroom to take my make up off and the sink would not drain! The metal stopper was broken and it stayed closed. I had to wash my face and brush my teeth at the kitchen sink. I didn't tell the front desk and complain because my daughter was already asleep and I didn't want to change rooms. We had to leave around 6am so I felt like two beds was more of a priority.  When I went to check out at 6:15 AM there was no one at the front desk. I couldn't check out or tell them about the sink. The grab and go breakfast is not much but at least it's something although this hotel did not have any food! No granola bars no muffins no oatmeal nothing! All they had was coffee. The cabinet was messy and the trash was full. Just not acceptable!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at several extended stay America's because it's very affordable. This one did not meet average expectations. I booked my room online and got a great price. We checked in late (10pm) and I had called prior and asked for a room with a double bed which I got. It was a handicap accessible room. Very large. I don't feel like the room was cleaned well because I found a toy on the floor. Also after my daughter had went to sleep I went in the bathroom to take my make up off and the sink would not drain! The metal stopper was broken and it stayed closed. I had to wash my face and brush my teeth at the kitchen sink. I didn't tell the front desk and complain because my daughter was already asleep and I didn't want to change rooms. We had to leave around 6am so I felt like two beds was more of a priority.  When I went to check out at 6:15 AM there was no one at the front desk. I couldn't check out or tell them about the sink. The grab and go breakfast is not much but at least it's something although this hotel did not have any food! No granola bars no muffins no oatmeal nothing! All they had was coffee. The cabinet was messy and the trash was full. Just not acceptable!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r531184549-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -279,9 +423,6 @@
     <t>No one answered phone, even from room...busy signalDrove there and went in, no one at deskHall smells awful, put towel under door and opened perfume bottleNo ice bucket no coffee maker , no cupshair in the tub a ring around the toilet kids running up and down the Halls screaming , dog barking continual for hoursFuzzy TV reception and was only on narrow aspect could not change it to normalYou have to pay extra to get a non-smoking roomDog barked nonstop for hoursBreakfast, instant oatmeal packet lolMore</t>
   </si>
   <si>
-    <t>Ann-Marrie R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r528880257-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -306,9 +447,6 @@
     <t>A total nightmare from the day the GM named Sergio arrived. Extremely unprofessional, underhanded staff other than the long term employees. Thank you Miss. Peggy, Miss. Jo-Anne, Manuel and Miss. Sylvia.  Christie the "lead" is even worse. Double charged us for upgrading Internet. I had to email Corporate because of their refusal to have pest control return for roaches and the day prior to checkout deleted our coupons due at checkout AND our $100 deposit. My suggestion, record your conversation as I have in order to get your money back in court! Side note, it's absolutely legal in the State of Texas. Educate yourself. As a form of retaliation the GM named Sergio called the police on me when I pressed play. Imagine how I felt that there was a need to press record?More</t>
   </si>
   <si>
-    <t>Josh B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r526405400-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -336,7 +474,43 @@
     <t>Upon my stay at Extended Stay America Dallas Lewisville I was treated with kindness and was shown very good hospitality I recommend that anybody or everybody should stay here at least for one weekend I was told about some places to go and eat in the surrounding area and was very exceptional to the staff here and the cleanliness of the place is very very very clean I know if I come back I will definitely be staying here again very spacious and Roomy Room very clean in the room all I know is very happy with my stayMore</t>
   </si>
   <si>
-    <t>tito_jones95</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r526151428-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>526151428</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Enjoying my stay at Extended Stay America</t>
+  </si>
+  <si>
+    <t>I came to the Extended Stay America hotel with my husband and daughter. He was here on business so me and my daughter stayed at the hotel while he worked. During my stay I want treated with the up most respect. Mrs Christie was very nice. She made sure our child had extra blankets and sheet and towels. She did her job to the max. Hey Mrs Christie we thank you so much. You're doing and awesome job. Keep up the good work. Extended Stay America is number one in my book..MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>I came to the Extended Stay America hotel with my husband and daughter. He was here on business so me and my daughter stayed at the hotel while he worked. During my stay I want treated with the up most respect. Mrs Christie was very nice. She made sure our child had extra blankets and sheet and towels. She did her job to the max. Hey Mrs Christie we thank you so much. You're doing and awesome job. Keep up the good work. Extended Stay America is number one in my book..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r526148245-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>526148245</t>
+  </si>
+  <si>
+    <t>Extend Stay America Awesome service.</t>
+  </si>
+  <si>
+    <t>This was the absolute best hotel ever. The service was Great. I was taken care of to the fullest. Mrs Christie was so professional and totally polite. She made sure me and my family felt safe and secure. Extended Stay America is definitely a home away from home. Thank you Mrs Christie you awesome!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the absolute best hotel ever. The service was Great. I was taken care of to the fullest. Mrs Christie was so professional and totally polite. She made sure me and my family felt safe and secure. Extended Stay America is definitely a home away from home. Thank you Mrs Christie you awesome!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r523638540-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -363,9 +537,6 @@
     <t>Francis and Christie both are two very caring awesome individuals ! Felt like home because of these two ladies took very good care of me and my co workers, I will definitely recommend this extended stay and will return - room 204More</t>
   </si>
   <si>
-    <t>E4989NGaaronm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r510223359-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -396,9 +567,6 @@
     <t>Horrible I will never recommend or come back to this place ever! Me and my wife left immediately without saying bye to anyway thats how horrible it was! We left out the back door after being in the room for like 20 minutes!More</t>
   </si>
   <si>
-    <t>adrianag520</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r509908763-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -414,9 +582,6 @@
     <t>Good hotel for the price, but need improve the check in, the deposit return, etc.  Some days since then and the return of the deposit, still not in my account (better to ask in cash, and return in cash)   Host gentil, but very long the check in, (insist)MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 8, 2017</t>
   </si>
   <si>
@@ -426,7 +591,46 @@
     <t>Good hotel for the price, but need improve the check in, the deposit return, etc.  Some days since then and the return of the deposit, still not in my account (better to ask in cash, and return in cash)   Host gentil, but very long the check in, (insist)More</t>
   </si>
   <si>
-    <t>R7175DHmarkt</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r508836607-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>508836607</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>My Days Off</t>
+  </si>
+  <si>
+    <t>I've been looking for a new apartment in Lewisville area so I've been staying at the extended stay On my Days Off. They don't ever Have Two Things That Go together! Coffee No Sugar, Rooms But No Keys (Key Machine Wasn't Working), and No Internet... But it's Always so quiet And Home Like it Will Make You Want To Come Back. The workers Choose which Policies They Want to Enforce And Which Ones They Don't, Which Is Extremely Frustrating And Irritating!  If You Pay With Cash They Want A Deposit (understandable) But If You Pay With A Card, Then The Employee (depending on How the worker Is Feeling) Wants A Deposit! The bad Smell Isn't In The Rooms Its Just In The More public Areas. I Have Stayed 3 separate Times And Each Time I Stay Something is Always Wrong... MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>I've been looking for a new apartment in Lewisville area so I've been staying at the extended stay On my Days Off. They don't ever Have Two Things That Go together! Coffee No Sugar, Rooms But No Keys (Key Machine Wasn't Working), and No Internet... But it's Always so quiet And Home Like it Will Make You Want To Come Back. The workers Choose which Policies They Want to Enforce And Which Ones They Don't, Which Is Extremely Frustrating And Irritating!  If You Pay With Cash They Want A Deposit (understandable) But If You Pay With A Card, Then The Employee (depending on How the worker Is Feeling) Wants A Deposit! The bad Smell Isn't In The Rooms Its Just In The More public Areas. I Have Stayed 3 separate Times And Each Time I Stay Something is Always Wrong... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r508774092-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>508774092</t>
+  </si>
+  <si>
+    <t>Expect nothing</t>
+  </si>
+  <si>
+    <t>On the plus side, the staff was mostly genuinely pleasant.  However....The room was low-end at best.  There was a bare plate on the wall where a lamp should have been. The vinyl flooring was peeling away next to the shower in the bathroom, and there was clearly a mildew problem.  If you're expecting to have no cigarette smoke in the non-smoking rooms, you'll be disappointed.  If you expect consistent hot water when you shower, you'll be disappointed.  If you expect your key to work every day of your stay, you'll be disappointed.  If you expect nothing at all, then your stay at this property will meet those expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>On the plus side, the staff was mostly genuinely pleasant.  However....The room was low-end at best.  There was a bare plate on the wall where a lamp should have been. The vinyl flooring was peeling away next to the shower in the bathroom, and there was clearly a mildew problem.  If you're expecting to have no cigarette smoke in the non-smoking rooms, you'll be disappointed.  If you expect consistent hot water when you shower, you'll be disappointed.  If you expect your key to work every day of your stay, you'll be disappointed.  If you expect nothing at all, then your stay at this property will meet those expectations.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r508748611-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -435,30 +639,15 @@
     <t>508748611</t>
   </si>
   <si>
-    <t>08/04/2017</t>
-  </si>
-  <si>
     <t>Great Staff - Great Stay</t>
   </si>
   <si>
     <t>We enjoyed very much our stay at Extended Stay America - Lewisville - Sergio, the manager was great, so was his staff: very accommodating, nice and helpful. We would definitely return in the future.We recommenced this place. Clean rooms and utensils.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 5, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 5, 2017</t>
-  </si>
-  <si>
     <t>We enjoyed very much our stay at Extended Stay America - Lewisville - Sergio, the manager was great, so was his staff: very accommodating, nice and helpful. We would definitely return in the future.We recommenced this place. Clean rooms and utensils.More</t>
   </si>
   <si>
-    <t>georgewD992JT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r506474411-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -481,9 +670,6 @@
   </si>
   <si>
     <t>Hotel was dirty. From elevator to halls to trash behind nightstand in room.  Staff unprofessional.  Breakfast in doorway.  People always hanging out smoking at door even though sign said 15 feet of non smoking.  Venthood not installed so you couldn't prepare meal without smoke alarm going off.More</t>
-  </si>
-  <si>
-    <t>James L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r504922032-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -515,7 +701,52 @@
 That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying...Let me first tell those who may be staying here in the future (and actually take the time to read these reviews)  I'm not trying to discourage you from staying here. I don't usually write reviews. But those few times I do, its positive reviews, based on excellent customer service. Most of the time those on these hotel staffs at the extended stays are doing the best they can with what they have to work with. I've been staying at different extended stay's around the country for the past 7 years or so for work. I have some comparisons to observe. Not just Extended Stay America chains but other chains as well. So based on the hospitality here, I have nothing but positive things to say here at the Lewisville, location. the staff at the counter are friendly and helpful. The Manager is clearly trying to offer that engaging kind of customer service.That being said, THIS review is directed at those that control the purse strings. In general, the extended stay America hotel chain are older. Buildings are older. There are new chains popping up, it seems all the time. It's odd that someone behind a computer screen in a tall office building would say "No" to any improvements. If your going to advertise laundry facilities, pay machines by the way, you have to allow replacement on these appliances on a regular basis. I clearly see the management trying to keep up with the hotel standards here. Guess what? it doesn't stop at just re-flooring. When you say "you spent enough for the improvements at this location" are you saying so thinking about your guest? It certainly doesn't seem so. I've been at this location for 3 months now. When I first got here all 6 dryers were working. Then after the first month 1 dryer went down. Then 2 then 3...So on, and so forth. Now, months later, a fifth one (5 out of 6) is about to go down. You can hear it. Let me ask you of those who run the chain, and are in charge of the DFW area Extend ed Stay America...Are you sure your in the right business? The business of hospitality? Spend some money. Reinvest in what makes you money, other wise your going to lose. Customer will stop coming to your chain. I don't care how cheap you make it. I'd hate to think about being the person at the front desk and having everyone complain that they can't use the laundry facility you call an "amenity" because your appliances wear out, and you don't pay to fix or replace them. Get a clue!!!!More</t>
   </si>
   <si>
-    <t>Nick P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r503305854-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>503305854</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Staff great nice room and clean It has a smell like wet carpet but nothing major. Nice building and no smoke smell nice place. Clean kitchen big room. Very comfortable bed and pillows. Alot of restaurants near by walking distances MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Staff great nice room and clean It has a smell like wet carpet but nothing major. Nice building and no smoke smell nice place. Clean kitchen big room. Very comfortable bed and pillows. Alot of restaurants near by walking distances More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r501051249-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>501051249</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>MY stay here was made restful,peaceful,and enjoyable,by Christie Sergie at Extended Stay America,Lewisville,Tx. She was very helpful in giving me directions to places around the area, knowledgeable about certain medicine and where to buy them. Thanks for allowing her to be here to help me.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>MY stay here was made restful,peaceful,and enjoyable,by Christie Sergie at Extended Stay America,Lewisville,Tx. She was very helpful in giving me directions to places around the area, knowledgeable about certain medicine and where to buy them. Thanks for allowing her to be here to help me.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500925921-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -524,27 +755,15 @@
     <t>500925921</t>
   </si>
   <si>
-    <t>07/11/2017</t>
-  </si>
-  <si>
     <t>Great staff and clean rooms</t>
   </si>
   <si>
     <t>I had a great stay while I was in Dallas and the front desk staff, Christie and Peggy were very polite and handled any of my needs without an attitude or any bad body language. Thanks a lot guys, I would stay again and recommend this hotel to anyone in the area staying. MoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 12, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 12, 2017</t>
-  </si>
-  <si>
     <t>I had a great stay while I was in Dallas and the front desk staff, Christie and Peggy were very polite and handled any of my needs without an attitude or any bad body language. Thanks a lot guys, I would stay again and recommend this hotel to anyone in the area staying. More</t>
   </si>
   <si>
-    <t>susan s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500902343-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -563,9 +782,6 @@
     <t>Staff is always helpful from Jo Ann,  Shamel, Sylvia, to Peggy, and Frances, all the way to Chris and Christy have a friendly word or assistance to everyone. They have made me and my family including our dog as comfortable as possible.  More</t>
   </si>
   <si>
-    <t>heatherbear2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r500249201-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -590,7 +806,52 @@
     <t>No bugs, bathroom was very clean, location is safe, and they care about keeping the place decent.  I would defiantly stay there again.  Only negatives during my stay was the room smelled heavily of mildew and smoke; the room was a non smoking room.  More</t>
   </si>
   <si>
-    <t>Brenda B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r498543219-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>498543219</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Pretty Decent</t>
+  </si>
+  <si>
+    <t>Pretty Decent.. The only problem I had was my room key stopped working each day I was there.. Room was perfect other than that.. The free breakfast could be better.. The front counter help was exceptional.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Pretty Decent.. The only problem I had was my room key stopped working each day I was there.. Room was perfect other than that.. The free breakfast could be better.. The front counter help was exceptional.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r496556422-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>496556422</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Not for me,, good for a few hrs</t>
+  </si>
+  <si>
+    <t>Few hrs only.. not  for a good quality ,!! Just was  expected more for an extended stay.. workers were friendly and polite.. however the hotel need an over all makeover /  renovation with better beds and furniture  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Few hrs only.. not  for a good quality ,!! Just was  expected more for an extended stay.. workers were friendly and polite.. however the hotel need an over all makeover /  renovation with better beds and furniture  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r496520098-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -599,27 +860,15 @@
     <t>496520098</t>
   </si>
   <si>
-    <t>06/27/2017</t>
-  </si>
-  <si>
     <t>Extended Stay</t>
   </si>
   <si>
     <t>Initial issue with reservation made one month prior through 800 number but Manager Christie expertly handled.  In corporate district and close to several restaurants and interstate highway.  Would stay again if in the area and needed long term accommodations.MoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded June 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 28, 2017</t>
-  </si>
-  <si>
     <t>Initial issue with reservation made one month prior through 800 number but Manager Christie expertly handled.  In corporate district and close to several restaurants and interstate highway.  Would stay again if in the area and needed long term accommodations.More</t>
   </si>
   <si>
-    <t>jesse132017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r495614653-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -644,9 +893,6 @@
     <t>Rude manager, smelled like dog piss when you stepped in the door. Advertise they will bring you your kitchen equipment but don't. My door wouldn't just open I had to fight with it. The toilet drained all night and was never fixed. It was a rather unpleasant stay overall. Not all of the staff was rude just the manager.More</t>
   </si>
   <si>
-    <t>ahmathews</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r479733966-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -671,7 +917,55 @@
     <t>Facility very clean and staff very friendly and helpful. I left my makeup bag in the room and was hundreds of miles away when I noticed my bag missing. I immediately called the manager, he found my bag then mailed it to me!! So thankful to them!!More</t>
   </si>
   <si>
-    <t>nana1355</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r479347425-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>479347425</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>What can I say, we came in tired each night and was greeted by very nice front desk. Himanshu singm took care of us with new towels, soap  and water. After a hard day of working it feels good coming to a nice place. I work out of town slot and this is one of the most comfortable places I've been. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>What can I say, we came in tired each night and was greeted by very nice front desk. Himanshu singm took care of us with new towels, soap  and water. After a hard day of working it feels good coming to a nice place. I work out of town slot and this is one of the most comfortable places I've been. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r478989841-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>478989841</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>I came to this hotel for price and good location were i was working.There was a couple issues that took a little longer that expected, but was handled. Next time i am in town i will look this place up again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>I came to this hotel for price and good location were i was working.There was a couple issues that took a little longer that expected, but was handled. Next time i am in town i will look this place up again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r476971054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -689,9 +983,6 @@
     <t>I put this review under the wrong location but my husband and i came to lewisville one weekend after heading towards memphis and needed a hotel in dallas because we were tired from the drive but every single hotel i went to was booked up not to mention rude and non caring ao finally after 2 and a half hours of searching i came across the extended stay i was ify at first but we were exhausted so we gave it a try and im glad we did i met with the guest representative Christie and she was very welcoming they were also booked up at the time but she not only managed to get me a room at the last minute but cleaned it up for us the room was very clean and she also pointed out some great restaurants across the stret which was very helpful because we were hungry and had been eating junk food the whole ride,so i would just like to say we will definently be stayin at the Extened Stay motels they have earned our business great customer service and a great first time experience thank you Ms.Christie and Extended stay staffSincerely Dianna GronadoMoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 19, 2017</t>
   </si>
   <si>
@@ -701,9 +992,6 @@
     <t>I put this review under the wrong location but my husband and i came to lewisville one weekend after heading towards memphis and needed a hotel in dallas because we were tired from the drive but every single hotel i went to was booked up not to mention rude and non caring ao finally after 2 and a half hours of searching i came across the extended stay i was ify at first but we were exhausted so we gave it a try and im glad we did i met with the guest representative Christie and she was very welcoming they were also booked up at the time but she not only managed to get me a room at the last minute but cleaned it up for us the room was very clean and she also pointed out some great restaurants across the stret which was very helpful because we were hungry and had been eating junk food the whole ride,so i would just like to say we will definently be stayin at the Extened Stay motels they have earned our business great customer service and a great first time experience thank you Ms.Christie and Extended stay staffSincerely Dianna GronadoMore</t>
   </si>
   <si>
-    <t>Erasmo M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473489376-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -722,9 +1010,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Christopher B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473480066-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -746,7 +1031,52 @@
     <t>Very great reception - understanding and courteous. Well done. Hirmanshu Singh was very understanding of my last minute booking. The hotel is located in a good part of town and has restaurants nearby for convenience.More</t>
   </si>
   <si>
-    <t>Jerry H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r473268399-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>473268399</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Wonderfull experience</t>
+  </si>
+  <si>
+    <t>I do recommend any one if ever coming to Dallas Texas to stay in this Extended Stay: first because the staff is very polite and I mean very one, Christe is very polite and will do anything in her power to help you, And make sure that your stay will be excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sergio M, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>I do recommend any one if ever coming to Dallas Texas to stay in this Extended Stay: first because the staff is very polite and I mean very one, Christe is very polite and will do anything in her power to help you, And make sure that your stay will be excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r472789202-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>472789202</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Trevizo</t>
+  </si>
+  <si>
+    <t>Excellent place highly recommended himanshu  Singh was very helpful rooms are pleasant and clean live the access to the surrounding areas local restaurant's convenience and easy access to highway and to Dallas Texas and Denton and McKinney MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Excellent place highly recommended himanshu  Singh was very helpful rooms are pleasant and clean live the access to the surrounding areas local restaurant's convenience and easy access to highway and to Dallas Texas and Denton and McKinney More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r472784509-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -755,27 +1085,15 @@
     <t>472784509</t>
   </si>
   <si>
-    <t>04/04/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ladder assist </t>
   </si>
   <si>
     <t>Nice quiet place to stay while out of town on business. Restaurants near by. Shopping. And airport are all close. The staff was respectful and helpful. Could use another elevator at the other end. Lol.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 10, 2017</t>
-  </si>
-  <si>
     <t>Nice quiet place to stay while out of town on business. Restaurants near by. Shopping. And airport are all close. The staff was respectful and helpful. Could use another elevator at the other end. Lol.More</t>
   </si>
   <si>
-    <t>Aprflnn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r471118637-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -800,9 +1118,6 @@
     <t>RUN!  This is horrible!  These ppl took money off my credit card without my knowledge. They claim I owed even though I paid ahead. Then they claimed I owed $150.00 in the middle of my stay for my dog even though I let them know ahead of time about her and she walked in with me!  They raised my rate in the middle of my stay without my knowledge because The first room had MOLD AND MILDEW! And they HAD to put me in one with a double bed!!  Also the smell of drugs is overwhelming. Run run run!More</t>
   </si>
   <si>
-    <t>s31890081</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r468704586-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -827,7 +1142,40 @@
     <t>Have kitchen and bathroom. They have breakfast and hot water in lobby. Cleaning service every week. I will be back next travel time. Thanks those employ and manager care. I will be back next travel time.  More</t>
   </si>
   <si>
-    <t>TrevorThomasBye</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r468516019-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>468516019</t>
+  </si>
+  <si>
+    <t>Day out with family</t>
+  </si>
+  <si>
+    <t>The night  with Grand-baby's  end of day from Six Flags.  I checked twice to make sure we had plenty of rooms for kids and grandbabies.  So when we get there to check in with war out grandbabies come to find out we only had two out of three rooms . It took almost 1 hour for them to accommodate use with the third room. Rooms were clean the rest of the stay was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>The night  with Grand-baby's  end of day from Six Flags.  I checked twice to make sure we had plenty of rooms for kids and grandbabies.  So when we get there to check in with war out grandbabies come to find out we only had two out of three rooms . It took almost 1 hour for them to accommodate use with the third room. Rooms were clean the rest of the stay was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r463664852-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>463664852</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Very nice staff! Will stay again</t>
+  </si>
+  <si>
+    <t>Had a billing issue. Signed up for perks program upon making reservation via phone. Completely resolved with an email and a returned phone call. Staff very nice and accommodating. management was awesome. Will stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Had a billing issue. Signed up for perks program upon making reservation via phone. Completely resolved with an email and a returned phone call. Staff very nice and accommodating. management was awesome. Will stay again! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r435348441-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -854,9 +1202,6 @@
     <t>I described them earlier:- Front desk staff was rude, not attentive, socializing, cursing and cutting up with staff and other long-term guests- Broken shower: had to take a sponge bath - Front desk did not accommodate when we let them know shower did not work- Iron was broken: burned a dress shirt of mine- No light fixtures worked- Arrived over an hour after check-in time, had to still wait for 30 minutes- Front desk was not present so I couldn't properly check out. Had to leave because I was in a hurry- No breakfast: only oatmeal packets and lukewarm waterMore</t>
   </si>
   <si>
-    <t>walterschmuntz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r427646814-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -884,9 +1229,6 @@
     <t>Lewisville Texas.  Definitely NOT a place I would recommend.  Overpriced for what you get.  Phones didn't work in room.  Not even a coffee pot in the room.  I will not return to Extended Stay America.  We reserved a second floor room and all they had waiting for us was a first floor, handicap room.More</t>
   </si>
   <si>
-    <t>Scott L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r418831569-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -914,7 +1256,66 @@
     <t>Overflowing garbage can with hundreds of cigarette butts at entrance was what was waiting for my arrival. A group of guests congregate here and smoke and drink. Thet were friendly but how the Staff would allow the garbage and butts to overflow is a telling sign to the condition of this location. It needs help.More</t>
   </si>
   <si>
-    <t>brendajames03</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r414535249-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>414535249</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>A great place to be if you are around this area</t>
+  </si>
+  <si>
+    <t>We stayed here for more than six months and never, for once, we felt that we were missing out something because we were not living in an apartment/house. This is definitely my place to stay, whenever I am in Dallas the next time. 
+Rooms:
+Rooms were pretty good. Nice and clean to a large extent. The toiletries are adequate. A big plus is that the rooms have a kitchenette and they encourage home cooking which is very good, especially for vegetarians. You have all the basic utensils like frying pan, pot, spatula, ladle, knives, can opener, plates, bowls, mugs etc. along with equipment like microwave, refrigerator and a two coil stove. In addition, they have the basic stuff like recliner chair, iron board, space for keeping your clothes and a TV. Overall cleanliness levels are quite high  which we liked and absolutely require. However, the towels and napkins in the bathroom aren't so clean. We had to take out our own because of that. Also, they, perhaps, need to be  a little more frequent with the pest control as we spotted a roach (twice after staying there for about four months). 
+Staff:
+The staff is really good. Some of the folks like Marco, Adria, Dio, Sylvia were really helpful and we had a great time interacting and knowing them. Within their boundaries, they have always tried to be very helpful. For example, once we had a couple of guests over...We stayed here for more than six months and never, for once, we felt that we were missing out something because we were not living in an apartment/house. This is definitely my place to stay, whenever I am in Dallas the next time. Rooms:Rooms were pretty good. Nice and clean to a large extent. The toiletries are adequate. A big plus is that the rooms have a kitchenette and they encourage home cooking which is very good, especially for vegetarians. You have all the basic utensils like frying pan, pot, spatula, ladle, knives, can opener, plates, bowls, mugs etc. along with equipment like microwave, refrigerator and a two coil stove. In addition, they have the basic stuff like recliner chair, iron board, space for keeping your clothes and a TV. Overall cleanliness levels are quite high  which we liked and absolutely require. However, the towels and napkins in the bathroom aren't so clean. We had to take out our own because of that. Also, they, perhaps, need to be  a little more frequent with the pest control as we spotted a roach (twice after staying there for about four months). Staff:The staff is really good. Some of the folks like Marco, Adria, Dio, Sylvia were really helpful and we had a great time interacting and knowing them. Within their boundaries, they have always tried to be very helpful. For example, once we had a couple of guests over our place (yes, we were confident to host a dinner here!!) and we got some good help around with a couple of extra chairs. The staff is perhaps what makes this Extended Stay really good and an amazing place to live. Location:It is very conveniently located a stone's throw away from I-35. You have a lot of restaurants nearby - Mexican, Japanese, Cajun Cafe and Hooters. The nearest supermarket, Target, is just about a mile away which again has a lot of restaurants around. There is a 7/11 right next to them. Commercial areas of Carrollton and Irving are also very close. 3-4 movie theaters within a 3-mile radius. There is Main Event, mainly known for bowling, billiards, and other games. There can't be a better location for this. Overall, it's very safe. We had many late-night and midnight walks when we were there and it never felt unsafe. Amenities:They have a daily takeaway breakfast in the morning from about 6 till 9:30, which includes coffee, oats, granola bars, fruits (apples and oranges) and muffins. Quite good enough to get you started for the morning. The in-house laundry was decent. We didn't use it since the washers and dryers weren't clean and the wash wasn't good enough to make the clothes clean. We went outside for the laundry. The parking is free and very large. You don't have to worry about keeping your car even if the hotel is fully booked. Overall:A great place to be if you are around this area. We have moved out but we prefer Extended Stay now for all our short term travels and trips. Love this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for more than six months and never, for once, we felt that we were missing out something because we were not living in an apartment/house. This is definitely my place to stay, whenever I am in Dallas the next time. 
+Rooms:
+Rooms were pretty good. Nice and clean to a large extent. The toiletries are adequate. A big plus is that the rooms have a kitchenette and they encourage home cooking which is very good, especially for vegetarians. You have all the basic utensils like frying pan, pot, spatula, ladle, knives, can opener, plates, bowls, mugs etc. along with equipment like microwave, refrigerator and a two coil stove. In addition, they have the basic stuff like recliner chair, iron board, space for keeping your clothes and a TV. Overall cleanliness levels are quite high  which we liked and absolutely require. However, the towels and napkins in the bathroom aren't so clean. We had to take out our own because of that. Also, they, perhaps, need to be  a little more frequent with the pest control as we spotted a roach (twice after staying there for about four months). 
+Staff:
+The staff is really good. Some of the folks like Marco, Adria, Dio, Sylvia were really helpful and we had a great time interacting and knowing them. Within their boundaries, they have always tried to be very helpful. For example, once we had a couple of guests over...We stayed here for more than six months and never, for once, we felt that we were missing out something because we were not living in an apartment/house. This is definitely my place to stay, whenever I am in Dallas the next time. Rooms:Rooms were pretty good. Nice and clean to a large extent. The toiletries are adequate. A big plus is that the rooms have a kitchenette and they encourage home cooking which is very good, especially for vegetarians. You have all the basic utensils like frying pan, pot, spatula, ladle, knives, can opener, plates, bowls, mugs etc. along with equipment like microwave, refrigerator and a two coil stove. In addition, they have the basic stuff like recliner chair, iron board, space for keeping your clothes and a TV. Overall cleanliness levels are quite high  which we liked and absolutely require. However, the towels and napkins in the bathroom aren't so clean. We had to take out our own because of that. Also, they, perhaps, need to be  a little more frequent with the pest control as we spotted a roach (twice after staying there for about four months). Staff:The staff is really good. Some of the folks like Marco, Adria, Dio, Sylvia were really helpful and we had a great time interacting and knowing them. Within their boundaries, they have always tried to be very helpful. For example, once we had a couple of guests over our place (yes, we were confident to host a dinner here!!) and we got some good help around with a couple of extra chairs. The staff is perhaps what makes this Extended Stay really good and an amazing place to live. Location:It is very conveniently located a stone's throw away from I-35. You have a lot of restaurants nearby - Mexican, Japanese, Cajun Cafe and Hooters. The nearest supermarket, Target, is just about a mile away which again has a lot of restaurants around. There is a 7/11 right next to them. Commercial areas of Carrollton and Irving are also very close. 3-4 movie theaters within a 3-mile radius. There is Main Event, mainly known for bowling, billiards, and other games. There can't be a better location for this. Overall, it's very safe. We had many late-night and midnight walks when we were there and it never felt unsafe. Amenities:They have a daily takeaway breakfast in the morning from about 6 till 9:30, which includes coffee, oats, granola bars, fruits (apples and oranges) and muffins. Quite good enough to get you started for the morning. The in-house laundry was decent. We didn't use it since the washers and dryers weren't clean and the wash wasn't good enough to make the clothes clean. We went outside for the laundry. The parking is free and very large. You don't have to worry about keeping your car even if the hotel is fully booked. Overall:A great place to be if you are around this area. We have moved out but we prefer Extended Stay now for all our short term travels and trips. Love this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r399155820-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>399155820</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>First and Last time staying at Extended Stay</t>
+  </si>
+  <si>
+    <t>The floor in the room looked like it had not been vacuumed in a week. I had to clean the food crumbs off of the chair so I could sit down. There was not a fork, cup, or even a coffee pot in the room. When I called down about this I was told I could come down and get what I wanted. The 2 1/2 days I was there the room did not get cleaned one time! No trash taken out, no towels, nothing. I have never stayed anywhere that did not come in and at least take the trash out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>The floor in the room looked like it had not been vacuumed in a week. I had to clean the food crumbs off of the chair so I could sit down. There was not a fork, cup, or even a coffee pot in the room. When I called down about this I was told I could come down and get what I wanted. The 2 1/2 days I was there the room did not get cleaned one time! No trash taken out, no towels, nothing. I have never stayed anywhere that did not come in and at least take the trash out.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r393712789-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -932,9 +1333,6 @@
     <t>Experience was one of the worst ever.  We are traveling from OKC to Dallas area to catch an early morning flight.  Arrived later than expected in the evening due to construction on I-35 and a wreck.  Arrived at hotel at 1040 pm (office hours were posted to be until 1100pm).  The employee at the front desk was rude and was closing the door upon arrival (20 minutes earlier than posted).  Employee indicated my room keys were in a lockbox in the entry way.  We immediately attempted to unload luggage and employee would not let me enter through the front door.  My children and I had to walk around the building to a side entrance.  Again, all of this was before 11 pm (the posted closing time for the front office).  No paperwork was completed for check in.  Hotel was large and it took some time to find our room and when we did the room keys would not work  Attempted to contact the after hours number without any resolution to the matter.  Also saw a roach in the common area. Have phoned management but no resposnse yet either.  Stay at your own risk!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 24, 2016</t>
   </si>
   <si>
@@ -944,9 +1342,6 @@
     <t>Experience was one of the worst ever.  We are traveling from OKC to Dallas area to catch an early morning flight.  Arrived later than expected in the evening due to construction on I-35 and a wreck.  Arrived at hotel at 1040 pm (office hours were posted to be until 1100pm).  The employee at the front desk was rude and was closing the door upon arrival (20 minutes earlier than posted).  Employee indicated my room keys were in a lockbox in the entry way.  We immediately attempted to unload luggage and employee would not let me enter through the front door.  My children and I had to walk around the building to a side entrance.  Again, all of this was before 11 pm (the posted closing time for the front office).  No paperwork was completed for check in.  Hotel was large and it took some time to find our room and when we did the room keys would not work  Attempted to contact the after hours number without any resolution to the matter.  Also saw a roach in the common area. Have phoned management but no resposnse yet either.  Stay at your own risk!!More</t>
   </si>
   <si>
-    <t>HLSNewMexico</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r382451727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -974,9 +1369,6 @@
     <t>I only stayed one night here, then moved to a lovely Marriott nearby for the rest of my trip.  I have no idea how other reviewers could have rated this hotel any higher than 2 stars.  It stinks. It's old and dirty.  The dogs are annoying.  Did I mention it stinks?More</t>
   </si>
   <si>
-    <t>sassygirl321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r363996796-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1004,7 +1396,46 @@
     <t>Unfortunately the hotel allows dogs but does not have a dog station dispensing bags to clean up after dogs.  Nor are guests even asked to pick up after their dogs.  And no one on staff is doing it either.  So basically as you walk around outside there are piles of dog feces on almost every inch of grass.  This causes another problem... the smell is disgusting!!  Its horrible.  Its to bad cause the grounds are actually nice.  But can't get past how disgusting the smell &amp; sight of it is.The other problem is that even though the housekeepers did a fine job on my room, there are not enough staff.  The rooms may get cleaned but the hallways, stair wells, laundry room are ridiculously filthy. Hire more people &amp; clean up the dog poop!!!More</t>
   </si>
   <si>
-    <t>Stephanie W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r350964915-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>350964915</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non smoking room reeked of smoke </t>
+  </si>
+  <si>
+    <t>We stopped here hoping for a clean place to sleep for the night.   When we opened the alleged non smoking room door, and the room reeked of smoke.  We didn't even go all the way in the room.  I went to the front  desk to ask for a different room. They said they didn't have any more.  They offered me a $10 credit to keep the room. I asked for a refund and am enroute to find another hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>We stopped here hoping for a clean place to sleep for the night.   When we opened the alleged non smoking room door, and the room reeked of smoke.  We didn't even go all the way in the room.  I went to the front  desk to ask for a different room. They said they didn't have any more.  They offered me a $10 credit to keep the room. I asked for a refund and am enroute to find another hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r318750993-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>318750993</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>My stay was fine, very close to where i needed to go there were a few things that i liked and dislikedPros: clean rooms, staff was friendly, close to highway, good grab and go breakfastCons: smelly room, hard mattress, some of the light were out, it would be nice if kitchen had what it need, no hot waterBecause i have experienced other extended stays and i enjoyed then i would stay again here if  needed.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r292483295-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1028,9 +1459,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Karen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r262164372-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1058,9 +1486,6 @@
     <t>The staff is very friendly and goes above and beyond for every guest. Always greeting you by your name and when I had to come over from a place next door I was frantic and Joii checked me into a very clean room that was spacious I couldn't have been happier and calmed my nerves with her nice conversation. The next day I met the assistant manager Spencer and his morning front desk staff Zee and Aurelia, I felt so welcomed and like I was visiting old friends. This home away from home is perfect for anyone wanting to do a stay-cay or in transition into a new home. I highly recommend this hotel to anyone. More</t>
   </si>
   <si>
-    <t>Nicole L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r249337529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1088,7 +1513,55 @@
     <t>The room in general was not clean. From a dirty bathroom, to food left inside, to dirty dishes. The elevator is nasty with the same dirt on the floor for days! The emergency exit sign on the door to our room was not even for our room but a room on a totally different floor, and the fridge opened in the opposite direction making cooking difficult. My room was a "non" smoking room, but we found cigarette butts in the window.  We were not at all impressed and wished that we had gone next door to the Suburban Stay instead. I did mark 1 star because one good thing this hotel has going for it is that the staff is really nice and accommodating.More</t>
   </si>
   <si>
-    <t>oaktrek</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r245305092-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>245305092</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>I have never been to such a disgusting hotel in my life. It was so dirty that i couldn't sleep at all! There was hair and trashes everywhere in the room including under the bed, the sheets smelled awful and there was dogs hair on them. Then I wanted another room, which I was told it was really clean, but it was absolutely the same. I don't want to mention the bathroom.....I had to clean everything by myself ...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>I have never been to such a disgusting hotel in my life. It was so dirty that i couldn't sleep at all! There was hair and trashes everywhere in the room including under the bed, the sheets smelled awful and there was dogs hair on them. Then I wanted another room, which I was told it was really clean, but it was absolutely the same. I don't want to mention the bathroom.....I had to clean everything by myself ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r244810604-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>244810604</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Winter home</t>
+  </si>
+  <si>
+    <t>We are from WI and use this as a winter getaway.  Krystal is very friendly and the rooms have been renovated.  Housekeeping clean and change up the linens once a week on monthly stays.  We are planning on staying again in Feb.  Lewisville has a very active Senior Center which we joined and participate in many of their activities and special occasion parties. Vista Ridge Mall is close by.  With The kitchen facilities in the room  we enjoy cooking and eating in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>We are from WI and use this as a winter getaway.  Krystal is very friendly and the rooms have been renovated.  Housekeeping clean and change up the linens once a week on monthly stays.  We are planning on staying again in Feb.  Lewisville has a very active Senior Center which we joined and participate in many of their activities and special occasion parties. Vista Ridge Mall is close by.  With The kitchen facilities in the room  we enjoy cooking and eating in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r233108927-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1127,9 +1600,6 @@
 Internet: If you want to stream hulu on high quality at...We stayed here for 5 months with kids 1&amp;4 while looking for a house for 5 months. I did a lot of research on hotels this was the only one that wasn't filled with "drugs, hookers and rude even thives as staff" it even had a kitchen.If you are lucky enough to get in here's my breakdown. (it's the best so always booked, book early!) Hotel: It is clean the cleaning staff is amazing. They have pest control that does come by every few months. I never saw a single bug. Microwave, 2 burner stovetop, full fridge/freezer toaster, coffee maker, dishes, a pot a pan, strainer, and a peeler. Ac blows cold and works great 103 outside? No problem 72 inside my preferred temp. Security: it is an enclosed hotel no one gets in after 11 without a key or the front desk letting them in through the front door. Some ESA in the area the rooms can all be accessed from outdoor stair ways.Noise: I occasionally heard a bump from the neighbors desk hitting the wall but honestly no noise from either of my neighbors. I was on the top floor. Only could hear traffic in halls if someone was talking very very loudly.Cable: Not many channels I think 15 never counted basic local with discovery, oxygen and a few movie channels starz I think. Internet: If you want to stream hulu on high quality at night pay for the faster internet, if you are okay with low quality and buffering occasionally go with free but I will say busy season always go with paid in the summer we could not stream low quality with free. If you have a device that doesn't go to internet browser like a bluray player, you have to call to get it connected and can only go with free internet I could watch things on the amazon app without too much buffering.Staff: Very professional, no one was ever rude or disrespectful not once in 5 whole months. No matter what I needed or how long they had been working or no matter what time if night or day. No one stole anything from my room which was a real concern of mine reading other hotels reviews.Location: about 30 min from Dallas, only an exit away from the mall, a few blocks away from a super target, Ross and chuckie cheese. About 9 min to Wal-Mart, postoffice and the library. Lots of parks, fields and trails you can pick up the map of them all at the community center across from the library or online. Really a great area.Tips: Fridge thermometer it's like $2 at walmart even on the lowest setting after a few days my freezer would completely freeze over and stop blowing to the fridge.More</t>
   </si>
   <si>
-    <t>rambleon2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r227122054-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1616,6 @@
   </si>
   <si>
     <t>March 2014</t>
-  </si>
-  <si>
-    <t>FormerCaliBoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r211538453-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1186,7 +1653,46 @@
 In the mornings, a take n’ go breakfast is offered in the lobby.  It is...We booked and received a good deal via an online hotel discounter.  Upon arrival, the room was ready, we were checked in promptly (I believe the gentleman’s name was Spencer).  He had a friendly smile and made us feel comfortable upon arrival.The room was very nice.    Two large beds, flat screen TV, dresser, work table and chair, an additional chair, iron/ironing board, fridge, microwave, coffee/tea maker, toaster, stove and limited eating utensils.  There was very little hygiene products, but it did state in the room brochure that complementary hygiene products were available at the front desk.  Free Wi-Fi is included in the room rate, which was more than sufficient.  They did offer upgraded, faster options for the in-room Wi-Fi for a supplemental fee.  The bed was extremely comfortable and we had a good night’s rest.Items of note for improvements:  Firstly, there was dirt and crumbs on the floor under the bathroom sink.    Secondly, later in the evening, I was sitting at the work desk when I noticed something moving towards me on the floor.  After jumping up, I saw the biggest Texas-sized roach I have ever seen in my life.  I forgot to take a picture after dispatching the creature, but I did notify Spencer at the front desk and he stated he would make sure the room was exterminated after our departure.In the mornings, a take n’ go breakfast is offered in the lobby.  It is not a great selection, but it does offer coffee/tea/hot chocolate, oatmeal packets, breakfast bars, muffins and whole fruits. Overall, with the exception of the creepy crawly, the stay was good and I would stay again.More</t>
   </si>
   <si>
-    <t>Amanda P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r207678472-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>207678472</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Just Okay</t>
+  </si>
+  <si>
+    <t>It is an ok place to stay for short term and if you don't have a better expectation of a place to stay. They don't offer much assistance one stays like no dish soap to wash the dishes with, no amenities (shampoo, conditioner, or hair dryer), pans are not good for cooking cause they have food stick to them even if you use oil, they do not leave enough supplies for a week usage (towels, toilet paper, and such), and other things do not make it comfortable stay. Would be easier to stay at hotel and eat out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>It is an ok place to stay for short term and if you don't have a better expectation of a place to stay. They don't offer much assistance one stays like no dish soap to wash the dishes with, no amenities (shampoo, conditioner, or hair dryer), pans are not good for cooking cause they have food stick to them even if you use oil, they do not leave enough supplies for a week usage (towels, toilet paper, and such), and other things do not make it comfortable stay. Would be easier to stay at hotel and eat out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r207404101-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>207404101</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>I stayed here in 2012 and loved it. This time, I am having the opposite experience. I am in my second day of a 5 day stay. I made this reservation quite a while ago and requested a non-smoking room. At first, they tried to force me into a smoking room that had been "freshened up" because they were out of non-smoking rooms. But, when I insisted on a non-smoking room they magically found one and said they would have to give me two double beds instead of a queen bed. So, apparently weren't actually out of non-smoking rooms. Generally, people who request non-smoking rooms care more about the room being non-smoking than the types of beds in the room. When I got to the room, I noticed that the upstairs neighbors were stomping their feet as loudly as possible, throwing dishes around and slamming doors and cabinets. I tolerated it until the second day when I finally asked the front desk to tell them to knock it off. It hasn't stopped.The air conditioning is weak and loud, making a good night's sleep difficult.And, I found two roaches in the bathroom this morning.In response, I have cancelled my Extended Stay reservations for the trip back to Michigan and will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here in 2012 and loved it. This time, I am having the opposite experience. I am in my second day of a 5 day stay. I made this reservation quite a while ago and requested a non-smoking room. At first, they tried to force me into a smoking room that had been "freshened up" because they were out of non-smoking rooms. But, when I insisted on a non-smoking room they magically found one and said they would have to give me two double beds instead of a queen bed. So, apparently weren't actually out of non-smoking rooms. Generally, people who request non-smoking rooms care more about the room being non-smoking than the types of beds in the room. When I got to the room, I noticed that the upstairs neighbors were stomping their feet as loudly as possible, throwing dishes around and slamming doors and cabinets. I tolerated it until the second day when I finally asked the front desk to tell them to knock it off. It hasn't stopped.The air conditioning is weak and loud, making a good night's sleep difficult.And, I found two roaches in the bathroom this morning.In response, I have cancelled my Extended Stay reservations for the trip back to Michigan and will never stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r195816630-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1243,9 +1749,6 @@
     <t>We try to stay at this hotel each time we come to the Lewisville area. The staff is courteous, helpful, &amp; very professional. The rooms are clean; I have never seen any bugs in any area. I feel safe in this hotel; we are an older couple so that is very important to us.  I really enjoy staying here. If II have any special request, the staff tries to help me any way they can.  The grab &amp; go is really nice too.More</t>
   </si>
   <si>
-    <t>james s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r188363529-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1261,7 +1764,55 @@
     <t>What A nice staff and clean room.Thanks everone at extended stay Lewisville. Couldn't ask for more for the price. The grab and go was always there for a morning kick start. Plenty parking secure  area always quiet. I35 right next door makes getting too airport easy going. And if you come here got too try RAZOOS walk next door  great cagune food for a decent price. agin thanks for A verry nice stay   felt like A home away from home    James Spicer</t>
   </si>
   <si>
-    <t>Mariela R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r180185771-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>180185771</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Kudos to Krystal</t>
+  </si>
+  <si>
+    <t>I had problems at check-in, but it wasn't the fault of the Hotel, but rather Priceline. Priceline dropped the ball and never submitted my reservation. When I arrived, Krystal went above and beyond to do the right thing and get me into a room. Her courtesy and customer service skills should serve as a model for employees of all industries. Thank you, Krystal. As for my stay, it was overall a pleasant stay. The room met my expectations. If there's anything negative, I would say that the hallways on the 3rd floor smell like cigarette smoke. That's minor though. I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>I had problems at check-in, but it wasn't the fault of the Hotel, but rather Priceline. Priceline dropped the ball and never submitted my reservation. When I arrived, Krystal went above and beyond to do the right thing and get me into a room. Her courtesy and customer service skills should serve as a model for employees of all industries. Thank you, Krystal. As for my stay, it was overall a pleasant stay. The room met my expectations. If there's anything negative, I would say that the hallways on the 3rd floor smell like cigarette smoke. That's minor though. I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r179108444-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>179108444</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Good Stay but With Problems</t>
+  </si>
+  <si>
+    <t>First, a thank you to the hotel staff for being friendly and having a smooth check in and check out process.  Unfortunately, I experienced several problems during my 2-week stay.* Toilet was in need of repairs, which did get fixed a few days into my stay.* Toilet was not properly cleaned before check in.  This was never fully resolved, even after 3 visits from housekeeping.* Areas around the sink and microwave were not clean.  I left a handwritten message about this to get the attention of the  housekeeping staff.  The note was removed while I was out, but those areas were never cleaned during my stay.* Two of the four towels from the most recent housekeeping were not clean.  One was stained and the other had a lot of hair in it.* The refrigerator was not properly maintained.  At the normal setting, it ran continuously and made a loud whine throughout my stay.* I was locked out of the building on two occasions when my room key stopped working.* The hotel does not have an answering service.  Any calls to the front desk while they are on the phone get disconnected by the automated system.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>First, a thank you to the hotel staff for being friendly and having a smooth check in and check out process.  Unfortunately, I experienced several problems during my 2-week stay.* Toilet was in need of repairs, which did get fixed a few days into my stay.* Toilet was not properly cleaned before check in.  This was never fully resolved, even after 3 visits from housekeeping.* Areas around the sink and microwave were not clean.  I left a handwritten message about this to get the attention of the  housekeeping staff.  The note was removed while I was out, but those areas were never cleaned during my stay.* Two of the four towels from the most recent housekeeping were not clean.  One was stained and the other had a lot of hair in it.* The refrigerator was not properly maintained.  At the normal setting, it ran continuously and made a loud whine throughout my stay.* I was locked out of the building on two occasions when my room key stopped working.* The hotel does not have an answering service.  Any calls to the front desk while they are on the phone get disconnected by the automated system.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r177320515-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1286,9 +1837,6 @@
   </si>
   <si>
     <t>I just can't stay anywhere else when I have to go to Dallas. It's like going to my second home. The staff is very friendly  and the location its great. I think it is really good for the price.I will come back soon.More</t>
-  </si>
-  <si>
-    <t>TrueBeing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r172574355-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1318,9 +1866,6 @@
 We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five...My wife and I wanted to spend sometime in this area and explore the neighboring towns to assess the feasibility of relocating to this area. We found this hotel through intensive research on the internet. The facilities offered by the hotel, the low cost, and most importantly, the raving reviews on this Tripadvisor web site, influenced our decision to book a room here.Although I booked on the internet, I called the hotel to confirm the reservation, as well as some of the details of facilities. I was greeted by the charming voice of Crystal, who was extremely patient, listened to all my questions, and gave me all the answers and information in a professional manner. And then asked if I had any other questions...I was wowed by her slow and crystal clear speech and the attention she paid to my needs as though I was the most important one in her life! I mentioned to her that we wanted a corner room, as someone had recommended on this site. She immediately assigned a corner room for us, unlike other hotels, who always "note" the request without any guarantee, and say they will have to see what is available at the time of check in! We had the opportunity of meeting her at the time of check in. She recognized my voice and remembered talking to me as well as my wife. We were all set in less than five minutes!Someone has complained about the sound of loud music from the nearby Razzoos on Thursday nights keeping them awake all night. But during our 9 days stay, we did not hear any music on Thursday night! Probably, after many complaints, The Razzoos had decided to turn down the volume!! Not sure...but we had a quiet and comfortable night on Thursday, and every night. The room was well furnished;  the bed had just the type of hard mattress that we are used to at home in view of our back problems. So that was very welcome to us! I have to mention Aroya, one of the staff with the most charming personality and helping attitude! Although the  full room cleaning service was free once a week, when I requested an additional mid week service at the cost of $5 as advertised, Aroya smiled and said not to worry, and then went ahead and ordered the service free of cost! These are the small kind gestures that we will always remember. In fact every interaction we had with the staff was extremely friendly and satisfying! We felt like they are all our family!! We will definitely come back to stay here, whenever we visit this area.More</t>
   </si>
   <si>
-    <t>Devadas S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r168904195-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1348,7 +1893,59 @@
     <t>Traveled lewisville on a business visit and stayed at this place. Very courteous staff. Room was very clean and well maintained. Overall the stay was very pleasant. It would have been good if an in house restaurant facility was available.More</t>
   </si>
   <si>
-    <t>TRAVELBOY52</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r165537371-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>165537371</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Great for Families In Transition</t>
+  </si>
+  <si>
+    <t>Our family of four was moving cities but needed somewhere to live in the D/FW area for three weeks until my kids finished school. Extended Stay America was the perfect solution. My kids, (7 and 4), my wife and I as well as our small dog, were in a double double room, one of the smaller rooms at this property, and while things were "cozy" we were all still comfortable and saved money.
+ESA is nothing fancy when it comes to hotels. We were happy to have a kitchen sink and a full refrigerator as well as a stove/oven in our room that made it more like home. Other than that, and the fact that standard housekeeping comes once a week, ESA is like any clean, comfortable hotel. We were happy we could have our dog with us in the room (he's a wiener dog) and he was very happy through the stay--when we left the room he stayed in his kennel/crate and the room became as much a home to him as our house. The people at ESA are what makes it great. Everyone on staff was very friendly and helpful every time we saw them. Any concern or issue we brought was quickly remedied and we enjoyed the fact that they treated us like family.
+There is a bit of "loitering" that takes place at this hotel, but we never felt threatened or anything. In fact, it being...Our family of four was moving cities but needed somewhere to live in the D/FW area for three weeks until my kids finished school. Extended Stay America was the perfect solution. My kids, (7 and 4), my wife and I as well as our small dog, were in a double double room, one of the smaller rooms at this property, and while things were "cozy" we were all still comfortable and saved money.ESA is nothing fancy when it comes to hotels. We were happy to have a kitchen sink and a full refrigerator as well as a stove/oven in our room that made it more like home. Other than that, and the fact that standard housekeeping comes once a week, ESA is like any clean, comfortable hotel. We were happy we could have our dog with us in the room (he's a wiener dog) and he was very happy through the stay--when we left the room he stayed in his kennel/crate and the room became as much a home to him as our house. The people at ESA are what makes it great. Everyone on staff was very friendly and helpful every time we saw them. Any concern or issue we brought was quickly remedied and we enjoyed the fact that they treated us like family.There is a bit of "loitering" that takes place at this hotel, but we never felt threatened or anything. In fact, it being an extended stay hotel, we began to think of it as the public spaces of the hotel were our "neighborhood street" where we could see all of our neighbors. Everyone was friendly and kind and we enjoyed getting to know and help a few folks who were moving into the area and needed advice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Our family of four was moving cities but needed somewhere to live in the D/FW area for three weeks until my kids finished school. Extended Stay America was the perfect solution. My kids, (7 and 4), my wife and I as well as our small dog, were in a double double room, one of the smaller rooms at this property, and while things were "cozy" we were all still comfortable and saved money.
+ESA is nothing fancy when it comes to hotels. We were happy to have a kitchen sink and a full refrigerator as well as a stove/oven in our room that made it more like home. Other than that, and the fact that standard housekeeping comes once a week, ESA is like any clean, comfortable hotel. We were happy we could have our dog with us in the room (he's a wiener dog) and he was very happy through the stay--when we left the room he stayed in his kennel/crate and the room became as much a home to him as our house. The people at ESA are what makes it great. Everyone on staff was very friendly and helpful every time we saw them. Any concern or issue we brought was quickly remedied and we enjoyed the fact that they treated us like family.
+There is a bit of "loitering" that takes place at this hotel, but we never felt threatened or anything. In fact, it being...Our family of four was moving cities but needed somewhere to live in the D/FW area for three weeks until my kids finished school. Extended Stay America was the perfect solution. My kids, (7 and 4), my wife and I as well as our small dog, were in a double double room, one of the smaller rooms at this property, and while things were "cozy" we were all still comfortable and saved money.ESA is nothing fancy when it comes to hotels. We were happy to have a kitchen sink and a full refrigerator as well as a stove/oven in our room that made it more like home. Other than that, and the fact that standard housekeeping comes once a week, ESA is like any clean, comfortable hotel. We were happy we could have our dog with us in the room (he's a wiener dog) and he was very happy through the stay--when we left the room he stayed in his kennel/crate and the room became as much a home to him as our house. The people at ESA are what makes it great. Everyone on staff was very friendly and helpful every time we saw them. Any concern or issue we brought was quickly remedied and we enjoyed the fact that they treated us like family.There is a bit of "loitering" that takes place at this hotel, but we never felt threatened or anything. In fact, it being an extended stay hotel, we began to think of it as the public spaces of the hotel were our "neighborhood street" where we could see all of our neighbors. Everyone was friendly and kind and we enjoyed getting to know and help a few folks who were moving into the area and needed advice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r161514793-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>161514793</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Shelly always treats me nice. I alway come here about 4 times a year</t>
+  </si>
+  <si>
+    <t>The rooms are reasonably priced, very clean, and everyone is cool. My girl Shelly always makes me laugh and smile every time. I work in retail and excellent customer service means a lot to me. I have to stay in a lot of different hotels during the year due to the growth of my company and I always end up in a extended stay for a few weeks some time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2013</t>
+  </si>
+  <si>
+    <t>The rooms are reasonably priced, very clean, and everyone is cool. My girl Shelly always makes me laugh and smile every time. I work in retail and excellent customer service means a lot to me. I have to stay in a lot of different hotels during the year due to the growth of my company and I always end up in a extended stay for a few weeks some time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r159446866-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1364,9 +1961,6 @@
   </si>
   <si>
     <t>I stayed two nights here and rooms were great and newly updated. AC blows cold and water gets hot. My only concerns were the people hanging around in the lobby for several hours both nights drinking. Management should keep them out of there since there are rooms close by. I also was on a non smoking hall, and i'm pretty sure there were a couple of rooms that were smoking in there anyway. One other note, when leaving this morning, I noticed a police officer taking a report from one of the workers. I don't know what that was about, but it's a bit concerning. If these two issues weren't there, I would have given a better rating.P.S. They should add Fox Sports Southwest to channel lineup. Most Tx Rangers games are aired on that channelMoreShow less</t>
-  </si>
-  <si>
-    <t>May 2013</t>
   </si>
   <si>
     <t>Manager_11525, General Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded May 8, 2013</t>
@@ -1434,7 +2028,60 @@
 My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were...I stayed at Lewisville  Extended Stay for many weeks for work.  The staff were all very helpful and friendly.  The hotel has been remodeled recently and my room was very nice.  No funky smells and carpet was clean.  Bed was new but a bit hard for me so I got egg crates for $15 at Target(right down the road) and then all was great.   I felt safe at night &amp; it was quiet. Parking was always easy and the lot is lit very well for safety.  Multiple restaurants in walking distance which is very convenient.  I would stay there again if I was in the area.  My only two issues were not deal breakers for me but I would have given 5 stars had they been fixed.  The hotel is pet friendly but there is not a dog station with bags available so people will pick up after their pets.  If they are not going to provide bags then they should be telling guests or posting signs that they are responsible for cleaning up after their dogs.  I always had my own bags but clearly no one else did.  It was disgusting walking my dog with all the dog waste everywhere.  Trying to make sure neither he nor I stepped in any was almost impossible.  The second issue for me was the laundry room.  There was only 4 washers for the entire hotel--that's when all 4 were working.  They were very old and did not work well.  There was 6 dryers and they worked fine.  I opted out and went to a laundromat after 2 bad experiences.  Really annoying and time consuming.  I must say I enjoyed my time spent at Extended Stay much more then I have at many other long term hotels.  I would recommend it to others needing a long term place to stay that does not break the bank.  The 2 issues I had are easily fixable.  When I travel room cleanliness, safety and price are key factors and they definitely met my expectations.  The friendly staff was a lovely added bonus!!More</t>
   </si>
   <si>
-    <t>HarleyCowboyDallas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r157014215-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>157014215</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Pet Un-Friendly</t>
+  </si>
+  <si>
+    <t>I say Pet Un-Friendly because it is advertised as a Pet Friendly hotel. Yet their Pet Policy is such a rip off and to me pretty expensive as far as a cost goes when you consider that staying at an extended stay is supposed to be a cheaper cost. 
+They charge a $25 daily "special" cleaning not to exceed $150 to allow your pet to stay their. 
+First off that is about a 1/3 of the cost for you to stay at the hotel per night! 
+Second, no one even comes to do a "special" cleaning of your room. So this ends up being a "service" that the do not provide as it really is simply a fee to allow your pet to stay. They don't have a maid service so as to cut your costs while you stay. Yet they sure charge you to have a "special" cleaning done after you leave though! What if my dog doesn't have fleas? What if my dog didn't soil the carpet? $150 says the maid does not come in &amp; specially shampoo your carpet with some special pet shampoo. She or he probably grabs a vacuum at most to pick up any pet hair they may see. But isn't that just part of a "normal" clean up after the guests leave? 
+I understand a pet deposit as many people do not have the best pets in the world. They have accidents, they...I say Pet Un-Friendly because it is advertised as a Pet Friendly hotel. Yet their Pet Policy is such a rip off and to me pretty expensive as far as a cost goes when you consider that staying at an extended stay is supposed to be a cheaper cost. They charge a $25 daily "special" cleaning not to exceed $150 to allow your pet to stay their. First off that is about a 1/3 of the cost for you to stay at the hotel per night! Second, no one even comes to do a "special" cleaning of your room. So this ends up being a "service" that the do not provide as it really is simply a fee to allow your pet to stay. They don't have a maid service so as to cut your costs while you stay. Yet they sure charge you to have a "special" cleaning done after you leave though! What if my dog doesn't have fleas? What if my dog didn't soil the carpet? $150 says the maid does not come in &amp; specially shampoo your carpet with some special pet shampoo. She or he probably grabs a vacuum at most to pick up any pet hair they may see. But isn't that just part of a "normal" clean up after the guests leave? I understand a pet deposit as many people do not have the best pets in the world. They have accidents, they tear up stuff, the have fleas, etc. So if you have that kind of pet then you are going to lose your deposit and much more. If you don't you get that back, no problem at all. BUT at the Extended Stay, they simply just charge you $25 a night for no service and for no reason other than as an excuse to charge you more money.Granted they state these fees on their website but I'm simply pointing out that other Pet Friendly hotels generally in my experience just charge you a deposit. I feel as though I could have named a price for a hotel on Priceline or Orbitz that was Pet Friendly for a cheaper than paying the room rate and the "special" cleaning fee at an Extended Stay which is designed to cut your costs by providing you a room with limited cooking and refrigeration. The Pet Fee really inhibits your ability to travel for relocation purposes like I thought an Extended Stay would provide. I probably could have got a room at Priceline for $35 (saving $40 per night from Extended Stay) and if you factor in the $25 cleaning fee per night there ($60 over Priceline) could have got a room with a mini-fridge and ate a complementary breakfast there, packed a few sandwiches, and ate out at Subway with just a water and chips for less than the price Extended Stay charged! And my dog wouldn't have soiled the carpet or tore anything up so I would have got my deposit back in a few days after check out!MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>I say Pet Un-Friendly because it is advertised as a Pet Friendly hotel. Yet their Pet Policy is such a rip off and to me pretty expensive as far as a cost goes when you consider that staying at an extended stay is supposed to be a cheaper cost. 
+They charge a $25 daily "special" cleaning not to exceed $150 to allow your pet to stay their. 
+First off that is about a 1/3 of the cost for you to stay at the hotel per night! 
+Second, no one even comes to do a "special" cleaning of your room. So this ends up being a "service" that the do not provide as it really is simply a fee to allow your pet to stay. They don't have a maid service so as to cut your costs while you stay. Yet they sure charge you to have a "special" cleaning done after you leave though! What if my dog doesn't have fleas? What if my dog didn't soil the carpet? $150 says the maid does not come in &amp; specially shampoo your carpet with some special pet shampoo. She or he probably grabs a vacuum at most to pick up any pet hair they may see. But isn't that just part of a "normal" clean up after the guests leave? 
+I understand a pet deposit as many people do not have the best pets in the world. They have accidents, they...I say Pet Un-Friendly because it is advertised as a Pet Friendly hotel. Yet their Pet Policy is such a rip off and to me pretty expensive as far as a cost goes when you consider that staying at an extended stay is supposed to be a cheaper cost. They charge a $25 daily "special" cleaning not to exceed $150 to allow your pet to stay their. First off that is about a 1/3 of the cost for you to stay at the hotel per night! Second, no one even comes to do a "special" cleaning of your room. So this ends up being a "service" that the do not provide as it really is simply a fee to allow your pet to stay. They don't have a maid service so as to cut your costs while you stay. Yet they sure charge you to have a "special" cleaning done after you leave though! What if my dog doesn't have fleas? What if my dog didn't soil the carpet? $150 says the maid does not come in &amp; specially shampoo your carpet with some special pet shampoo. She or he probably grabs a vacuum at most to pick up any pet hair they may see. But isn't that just part of a "normal" clean up after the guests leave? I understand a pet deposit as many people do not have the best pets in the world. They have accidents, they tear up stuff, the have fleas, etc. So if you have that kind of pet then you are going to lose your deposit and much more. If you don't you get that back, no problem at all. BUT at the Extended Stay, they simply just charge you $25 a night for no service and for no reason other than as an excuse to charge you more money.Granted they state these fees on their website but I'm simply pointing out that other Pet Friendly hotels generally in my experience just charge you a deposit. I feel as though I could have named a price for a hotel on Priceline or Orbitz that was Pet Friendly for a cheaper than paying the room rate and the "special" cleaning fee at an Extended Stay which is designed to cut your costs by providing you a room with limited cooking and refrigeration. The Pet Fee really inhibits your ability to travel for relocation purposes like I thought an Extended Stay would provide. I probably could have got a room at Priceline for $35 (saving $40 per night from Extended Stay) and if you factor in the $25 cleaning fee per night there ($60 over Priceline) could have got a room with a mini-fridge and ate a complementary breakfast there, packed a few sandwiches, and ate out at Subway with just a water and chips for less than the price Extended Stay charged! And my dog wouldn't have soiled the carpet or tore anything up so I would have got my deposit back in a few days after check out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154511721-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>154511721</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay - Lewisville</t>
+  </si>
+  <si>
+    <t>I have been traveling back and forth from OK to Lewisville, TX for the past three years and I stay at a hotel when I am in Lewisville. The first year I stayed at the Extended Stay and then last year I decided to start staying at the Motel 6 in the area to save money. Earlier this year I switched back to the Extended Stay for (theoretically) one night and ever since then I have not gone back to the Motel 6. The accommodations are much nicer and the staff is always very friendly. The Manager, Krystal even remembered me from the previous year and "welcomed" me back. This is a very nice hotel, close to many restaurants and conveniently located to the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>I have been traveling back and forth from OK to Lewisville, TX for the past three years and I stay at a hotel when I am in Lewisville. The first year I stayed at the Extended Stay and then last year I decided to start staying at the Motel 6 in the area to save money. Earlier this year I switched back to the Extended Stay for (theoretically) one night and ever since then I have not gone back to the Motel 6. The accommodations are much nicer and the staff is always very friendly. The Manager, Krystal even remembered me from the previous year and "welcomed" me back. This is a very nice hotel, close to many restaurants and conveniently located to the highway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154467105-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1452,18 +2099,9 @@
     <t>We stayed about 2 weeks and the staff was always extremely friendly and helpful. The Grab and Go breakfast was terrific - always hot coffee, and choices of oatmeal, and fresh fruit - Excellent! We stayed in both upstairs and downstairs and both were great. Our small dog was always greeted with smiles - and she enjoyed her playful new friend Oscar! We would certainly recommend the Extended Stay America - and the new remodeled rooms are terrific. Thanks.MoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded March 15, 2013</t>
-  </si>
-  <si>
-    <t>Responded March 15, 2013</t>
-  </si>
-  <si>
     <t>We stayed about 2 weeks and the staff was always extremely friendly and helpful. The Grab and Go breakfast was terrific - always hot coffee, and choices of oatmeal, and fresh fruit - Excellent! We stayed in both upstairs and downstairs and both were great. Our small dog was always greeted with smiles - and she enjoyed her playful new friend Oscar! We would certainly recommend the Extended Stay America - and the new remodeled rooms are terrific. Thanks.More</t>
   </si>
   <si>
-    <t>audra651</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r154367984-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1482,9 +2120,6 @@
     <t>Won a bid on line for two nights, cute cozy room with kitchen.  Staff Monigue,Tim, Krystal were helpful and nice .  Like the stay booked two more nights. Every thing from shopping, eating right around the corner. Quit hotel.  They allow dogs which was nice to no for the future.   I attend to return this summer and hope i can win another room online. Thank u staff enjoyed our stay.More</t>
   </si>
   <si>
-    <t>stallenjan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r151225230-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1512,7 +2147,52 @@
     <t>This was my first time ever at an extended stay. I stayed here recently for one night while in town on business. The hotel is newer and is very clean and the room was large. The staff I interacted with were all very nice and accommodating. The hotel is in a fantastic location and is close to a Super Target, fast food, shopping, sit-down restaurants, and the highway. This hotel may not be the best place to stay short-term (1-2 nights) because it is geared for guests staying for long periods of time. For example, there is no business center or substantial breakfast. Therefore, I don't think I would use this hotel when traveling for short periods of time on business, but I would certainly consider it if I planned to be in Lewisville long-term.More</t>
   </si>
   <si>
-    <t>Jill B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r150704936-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>150704936</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>A true BLESSING to live here!!!!</t>
+  </si>
+  <si>
+    <t>The property was beyond my expectations! I checked in late evening. Monique extended excellent customer service with a smile. She informed me of recent renovations and YES I was pleased. For the prices are exceptional for a clean extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2013</t>
+  </si>
+  <si>
+    <t>The property was beyond my expectations! I checked in late evening. Monique extended excellent customer service with a smile. She informed me of recent renovations and YES I was pleased. For the prices are exceptional for a clean extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r150134551-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>150134551</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Great stay,</t>
+  </si>
+  <si>
+    <t>I stayed here 16 days I was in town tearing down I believe what was the 17 and 18 best hotels in Lewisville, which is the Knights Inn and SunSuites Inn. The extended stay rooms were great lots of room, great location to alot of eating places. The Showers where great good pressure and lots of hotwater. The Staff on all shifts was excellant. While I was there they started serving coffee and muffins in the morning for free. I guess if I had to find something wrong, it would be that not all of thee room have a constant fan on the a/c unit. It cooled great but when it was done it shut off and it was too quiet for me. Moved to room 126 and then it was a super stay it had constant fan. I Stay here again next time i am in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at Extended Stay America - Dallas - Lewisville, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 16 days I was in town tearing down I believe what was the 17 and 18 best hotels in Lewisville, which is the Knights Inn and SunSuites Inn. The extended stay rooms were great lots of room, great location to alot of eating places. The Showers where great good pressure and lots of hotwater. The Staff on all shifts was excellant. While I was there they started serving coffee and muffins in the morning for free. I guess if I had to find something wrong, it would be that not all of thee room have a constant fan on the a/c unit. It cooled great but when it was done it shut off and it was too quiet for me. Moved to room 126 and then it was a super stay it had constant fan. I Stay here again next time i am in town.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r149902033-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1539,9 +2219,6 @@
     <t>I have stayed at this extended hotel in Lewisville, TX several times.  It is a super clean, friendly place very close to many stores, Vista Ridge Mall and nice restaurants.  It is an easy drive to both Dallas airports and I35.  The manager, Krystal Carter, is very friendly and very helpful.  The entire staff is more than willing to respond to any issues you have and they are most knowledgable about the Dallas area.  The hotel rooms are a nice size with fully furnished kitchens - everything works!!!!    I highly recommend this hotel to anyone staying one night or one year - the staff is the best!!!!!  As with any extended stay hotel, you must furnish your own shampoo, hair dryer, and personal items.  If you have a problem, be sure Krystal and her staff will find a solution.  They are the best of the best!!!  It can't get better than this for the price!!!!!!More</t>
   </si>
   <si>
-    <t>lyshap</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r148505733-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1564,9 +2241,6 @@
   </si>
   <si>
     <t>This hotel has been so good to me. Needed a place to stay for a week and they took such good care of me and my daughter! The staff is beyond some of the kindest and friendliest people ive ever came across staying at hotels. This is one of my favorites from now on. More</t>
-  </si>
-  <si>
-    <t>tinkerbtch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r132691041-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1604,7 +2278,43 @@
 I wish I had gotten the names of each of the hotel...Walking in to this place, seeing it's updated decor, I had a feeling I was going to like it.  We arrived early (just leaving another hotel whose checkout was at 11).  The front desk clerk and her manager were present and even though I was early, they allowed me to go ahead and check in.  I was soooo relieved.  I hadn't slept well the night before and couldn't wait to shower!  The clerk and her manager were very, very helpful, kind and considerate.Once to my room, I opened the door and immediately felt like I was in heaven!  Wow..very beautiful. (Especially for an extended stay hotel).  There was a nice sized flat screen tv, a very comfortable bed, stylish/contemporary decor and plenty of room to move around and plenty of storage for my belongings. (and guess what?  NO FUNKY ODORS!) yaaaaaaaaaaay!The kitchenette was great.  I hadn't had a home cooked meal in a few days (since I had been staying in different hotels for the last few weeks), so this was a major plus!I asked for two pillows and the front desk brought them to me without hesitation.  Unlike other extended stays that make you feel as though you are being rationed, this extended stay was readily available to serve any requests I had and without the attitude you typically get at Extended Stay properties.I wish I had gotten the names of each of the hotel staff I dealt with, unfortunately I didn't..but I just want to say thank you so much Extended Stay America in Lewisville, for making my time in a hotel feel happy, free, comfortable, extremely clean and very enjoyable.I WILL be back as soon as possible.Ps.  Management is willing to work with you for longer length stays.  Unfortunately the rate was about 5 dollars a night more than I could afford, but I do appreciate her taking the time to work with me.  That says alot!  Kuddos to this hotel.  If you can get in to this one..  I recommend it without hesitation or reservation.I wish my camera had not broken.  I wanted to share photos, but I was unable to.More</t>
   </si>
   <si>
-    <t>texasrosie1952</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r131414638-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>131414638</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>Highly recommend!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Extended Stay America - Lewisville from Feb-May 2012 while we were searching for a house. Absolutely stellar staff, very professional yet personal feel! Clean property and interior, nice location (restaurants, convenience), plenty of well lit parking and wireless internet. The staff by far was the most impressive and we will definitely miss all of them!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Extended Stay America - Lewisville from Feb-May 2012 while we were searching for a house. Absolutely stellar staff, very professional yet personal feel! Clean property and interior, nice location (restaurants, convenience), plenty of well lit parking and wireless internet. The staff by far was the most impressive and we will definitely miss all of them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r119480447-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>119480447</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>OK nothing to brag about</t>
+  </si>
+  <si>
+    <t>Glad I brouht some supplies with me ,The bath soap stunk trashed it, NO trial dish liquid,paper towels,not enough silverware,1 spoon ,1 fork ,1 steak knife, 2 butter knives,and bigspoon and egg flip. enough dishes no larger bowls to store food in.NO icemaker.Noisy and don,t walk in sock feet carpet dirty. the beds were comfortable enough everything and the bathroom was clean and so was kitchen. Probably would not stay there again</t>
+  </si>
+  <si>
+    <t>October 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r24325727-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1628,9 +2338,6 @@
     <t>Was given directions courteously over the phone and when I arrived was booked quickly and efficiently. Very good service at front desk. The room was clean and pleasant and had a full service kitchen which was a great help since I am unfamiliar with the area. Everything you could need was supplied in the kitchen area, desk with internet available, comfortable easy chair to read in. The bed was comfortable and the tv worked well, easy to understand information for channel selection.I will definitely stay there again. I had stayed two weeks previously in a different hotel for close to double the price. (It had NO kitchen, not as conveniently located, and not such friendly staff as at Extended Stay Suites.) I have already recommended this to several of my friends who travel to Dallas area regularly for business conferences and seminars.More</t>
   </si>
   <si>
-    <t>CookieSalinas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r16668651-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1650,9 +2357,6 @@
   </si>
   <si>
     <t>A few weeks ago, we had a very close family member pass away.  So we immediately packed up for the 1,000 mile trip down to Texas.  We knew that other family members were staying at the Extended Stay but we accidently booked the hotel next door (Suburban Extended Stay).  We were planning on dealing with this minor setback when we were contacted by the people of the Extended Stay.  They helped us to switch hotels so that we could be close to our family.  Not only did they go through all of that, but they also helped to give a really great deal.  We were there for a week and not a day went by that someone didn't ask us how we were doing or if we needed anything.  Everytime we saw them, they were always so caring.  I have never seen customer service like this in my life.  This was a really dark experience that our family went through but I'm glad that they were there to help make it a  little easier.More</t>
-  </si>
-  <si>
-    <t>Jasonaldridge</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106744-r13817775-Extended_Stay_America_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2175,204 +2879,182 @@
       <c r="A2" t="n">
         <v>42269</v>
       </c>
-      <c r="B2" t="n">
-        <v>178326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42269</v>
       </c>
-      <c r="B3" t="n">
-        <v>178327</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42269</v>
       </c>
-      <c r="B4" t="n">
-        <v>178328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>4</v>
@@ -2381,328 +3063,346 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42269</v>
       </c>
-      <c r="B5" t="n">
-        <v>178329</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" t="s">
+      <c r="X5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Y5" t="s">
         <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42269</v>
       </c>
-      <c r="B6" t="n">
-        <v>178330</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42269</v>
       </c>
-      <c r="B7" t="n">
-        <v>11040</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>103</v>
-      </c>
-      <c r="X7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42269</v>
       </c>
-      <c r="B8" t="n">
-        <v>178331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42269</v>
       </c>
-      <c r="B9" t="n">
-        <v>178332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2712,135 +3412,117 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42269</v>
       </c>
-      <c r="B10" t="n">
-        <v>178333</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42269</v>
       </c>
-      <c r="B11" t="n">
-        <v>178334</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2852,271 +3534,241 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42269</v>
       </c>
-      <c r="B12" t="n">
-        <v>178335</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
         <v>142</v>
-      </c>
-      <c r="O12" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>152</v>
-      </c>
-      <c r="X12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42269</v>
       </c>
-      <c r="B13" t="n">
-        <v>1308</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42269</v>
       </c>
-      <c r="B14" t="n">
-        <v>7148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42269</v>
       </c>
-      <c r="B15" t="n">
-        <v>99861</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3128,285 +3780,259 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42269</v>
       </c>
-      <c r="B16" t="n">
-        <v>178336</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42269</v>
       </c>
-      <c r="B17" t="n">
-        <v>48928</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
         <v>179</v>
       </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
       <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42269</v>
       </c>
-      <c r="B18" t="n">
-        <v>178337</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42269</v>
       </c>
-      <c r="B19" t="n">
-        <v>178338</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3418,60 +4044,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42269</v>
       </c>
-      <c r="B20" t="n">
-        <v>178339</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3483,328 +4105,326 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42269</v>
       </c>
-      <c r="B21" t="n">
-        <v>178340</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
       <c r="Y21" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42269</v>
       </c>
-      <c r="B22" t="n">
-        <v>382</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42269</v>
       </c>
-      <c r="B23" t="n">
-        <v>20726</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42269</v>
       </c>
-      <c r="B24" t="n">
-        <v>178341</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42269</v>
       </c>
-      <c r="B25" t="n">
-        <v>178342</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3816,543 +4436,523 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42269</v>
       </c>
-      <c r="B26" t="n">
-        <v>178343</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42269</v>
       </c>
-      <c r="B27" t="n">
-        <v>178344</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="X27" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42269</v>
       </c>
-      <c r="B28" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42269</v>
       </c>
-      <c r="B29" t="n">
-        <v>178345</v>
-      </c>
-      <c r="C29" t="s">
-        <v>298</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>132</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42269</v>
       </c>
-      <c r="B30" t="n">
-        <v>178346</v>
-      </c>
-      <c r="C30" t="s">
-        <v>308</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
         <v>2</v>
       </c>
-      <c r="N30" t="s">
-        <v>314</v>
-      </c>
-      <c r="O30" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42269</v>
       </c>
-      <c r="B31" t="n">
-        <v>71680</v>
-      </c>
-      <c r="C31" t="s">
-        <v>318</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42269</v>
       </c>
-      <c r="B32" t="n">
-        <v>688</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
         <v>3</v>
       </c>
-      <c r="N32" t="s">
-        <v>334</v>
-      </c>
-      <c r="O32" t="s">
-        <v>335</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
       <c r="Y32" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42269</v>
       </c>
-      <c r="B33" t="n">
-        <v>3267</v>
-      </c>
-      <c r="C33" t="s">
-        <v>336</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4364,135 +4964,123 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="X33" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42269</v>
       </c>
-      <c r="B34" t="n">
-        <v>2989</v>
-      </c>
-      <c r="C34" t="s">
-        <v>346</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="X34" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="Y34" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42269</v>
       </c>
-      <c r="B35" t="n">
-        <v>178347</v>
-      </c>
-      <c r="C35" t="s">
-        <v>356</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -4504,215 +5092,189 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42269</v>
       </c>
-      <c r="B36" t="n">
-        <v>178348</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
       <c r="Y36" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42269</v>
       </c>
-      <c r="B37" t="n">
-        <v>178349</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>379</v>
-      </c>
-      <c r="X37" t="s">
-        <v>380</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42269</v>
       </c>
-      <c r="B38" t="n">
-        <v>34674</v>
-      </c>
-      <c r="C38" t="s">
-        <v>382</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="O38" t="s">
-        <v>132</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4721,807 +5283,689 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="X38" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42269</v>
       </c>
-      <c r="B39" t="n">
-        <v>3267</v>
-      </c>
-      <c r="C39" t="s">
-        <v>336</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>397</v>
+        <v>223</v>
       </c>
       <c r="O39" t="s">
-        <v>132</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42269</v>
       </c>
-      <c r="B40" t="n">
-        <v>16623</v>
-      </c>
-      <c r="C40" t="s">
-        <v>401</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>397</v>
+        <v>223</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>350</v>
+      </c>
+      <c r="X40" t="s">
+        <v>351</v>
+      </c>
       <c r="Y40" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42269</v>
       </c>
-      <c r="B41" t="n">
-        <v>136093</v>
-      </c>
-      <c r="C41" t="s">
-        <v>407</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+      <c r="N41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42269</v>
       </c>
-      <c r="B42" t="n">
-        <v>178350</v>
-      </c>
-      <c r="C42" t="s">
-        <v>416</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s">
-        <v>122</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
       <c r="Y42" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42269</v>
       </c>
-      <c r="B43" t="n">
-        <v>178351</v>
-      </c>
-      <c r="C43" t="s">
-        <v>424</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>430</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="X43" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42269</v>
       </c>
-      <c r="B44" t="n">
-        <v>178352</v>
-      </c>
-      <c r="C44" t="s">
-        <v>434</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>3</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="X44" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="Y44" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42269</v>
       </c>
-      <c r="B45" t="n">
-        <v>136093</v>
-      </c>
-      <c r="C45" t="s">
-        <v>407</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="J45" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="K45" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="X45" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="Y45" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42269</v>
       </c>
-      <c r="B46" t="n">
-        <v>71680</v>
-      </c>
-      <c r="C46" t="s">
-        <v>318</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>458</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="X46" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="Y46" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42269</v>
       </c>
-      <c r="B47" t="n">
-        <v>178353</v>
-      </c>
-      <c r="C47" t="s">
-        <v>462</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="O47" t="s">
-        <v>132</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="X47" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="Y47" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42269</v>
       </c>
-      <c r="B48" t="n">
-        <v>178354</v>
-      </c>
-      <c r="C48" t="s">
-        <v>471</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="J48" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>408</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="X48" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="Y48" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42269</v>
       </c>
-      <c r="B49" t="n">
-        <v>178355</v>
-      </c>
-      <c r="C49" t="s">
-        <v>478</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="J49" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="K49" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>5</v>
       </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>4</v>
@@ -5530,447 +5974,2983 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="X49" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="Y49" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42269</v>
       </c>
-      <c r="B50" t="n">
-        <v>8370</v>
-      </c>
-      <c r="C50" t="s">
-        <v>488</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>490</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>335</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="X50" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
       <c r="Y50" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42269</v>
       </c>
-      <c r="B51" t="n">
-        <v>178356</v>
-      </c>
-      <c r="C51" t="s">
-        <v>497</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="X51" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="Y51" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42269</v>
       </c>
-      <c r="B52" t="n">
-        <v>178357</v>
-      </c>
-      <c r="C52" t="s">
-        <v>506</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="J52" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="K52" t="s">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>512</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>132</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
       <c r="X52" t="s">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42269</v>
       </c>
-      <c r="B53" t="n">
-        <v>178358</v>
-      </c>
-      <c r="C53" t="s">
-        <v>516</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="J53" t="s">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>521</v>
+        <v>451</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>522</v>
+        <v>452</v>
       </c>
       <c r="O53" t="s">
-        <v>122</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
       <c r="Y53" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42269</v>
       </c>
-      <c r="B54" t="n">
-        <v>178359</v>
-      </c>
-      <c r="C54" t="s">
-        <v>524</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="J54" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="L54" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>530</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>461</v>
+      </c>
+      <c r="X54" t="s">
+        <v>462</v>
+      </c>
       <c r="Y54" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42269</v>
       </c>
-      <c r="B55" t="n">
-        <v>178360</v>
-      </c>
-      <c r="C55" t="s">
-        <v>532</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="J55" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="K55" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>475</v>
+      </c>
+      <c r="O56" t="s">
+        <v>476</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>478</v>
+      </c>
+      <c r="J57" t="s">
+        <v>479</v>
+      </c>
+      <c r="K57" t="s">
+        <v>480</v>
+      </c>
+      <c r="L57" t="s">
+        <v>481</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>482</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>483</v>
+      </c>
+      <c r="X57" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>487</v>
+      </c>
+      <c r="J58" t="s">
+        <v>488</v>
+      </c>
+      <c r="K58" t="s">
+        <v>489</v>
+      </c>
+      <c r="L58" t="s">
+        <v>490</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>491</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>492</v>
+      </c>
+      <c r="X58" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>495</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>496</v>
+      </c>
+      <c r="J59" t="s">
+        <v>497</v>
+      </c>
+      <c r="K59" t="s">
+        <v>498</v>
+      </c>
+      <c r="L59" t="s">
+        <v>499</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>501</v>
+      </c>
+      <c r="X59" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>505</v>
+      </c>
+      <c r="J60" t="s">
+        <v>506</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>500</v>
+      </c>
+      <c r="O60" t="s">
+        <v>179</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>509</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>512</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>513</v>
+      </c>
+      <c r="J61" t="s">
+        <v>514</v>
+      </c>
+      <c r="K61" t="s">
+        <v>515</v>
+      </c>
+      <c r="L61" t="s">
+        <v>516</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>517</v>
+      </c>
+      <c r="X61" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>520</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>521</v>
+      </c>
+      <c r="J62" t="s">
+        <v>522</v>
+      </c>
+      <c r="K62" t="s">
+        <v>523</v>
+      </c>
+      <c r="L62" t="s">
+        <v>524</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>525</v>
+      </c>
+      <c r="O62" t="s">
+        <v>105</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+      <c r="K63" t="s">
+        <v>529</v>
+      </c>
+      <c r="L63" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>531</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>532</v>
+      </c>
+      <c r="X63" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>535</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>536</v>
+      </c>
+      <c r="J64" t="s">
         <v>537</v>
+      </c>
+      <c r="K64" t="s">
+        <v>538</v>
+      </c>
+      <c r="L64" t="s">
+        <v>539</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>531</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>540</v>
+      </c>
+      <c r="X64" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>544</v>
+      </c>
+      <c r="J65" t="s">
+        <v>545</v>
+      </c>
+      <c r="K65" t="s">
+        <v>546</v>
+      </c>
+      <c r="L65" t="s">
+        <v>547</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>549</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>550</v>
+      </c>
+      <c r="J66" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" t="s">
+        <v>552</v>
+      </c>
+      <c r="L66" t="s">
+        <v>553</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>554</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>555</v>
+      </c>
+      <c r="X66" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>558</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>559</v>
+      </c>
+      <c r="J67" t="s">
+        <v>560</v>
+      </c>
+      <c r="K67" t="s">
+        <v>561</v>
+      </c>
+      <c r="L67" t="s">
+        <v>562</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>563</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>564</v>
+      </c>
+      <c r="X67" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>567</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>568</v>
+      </c>
+      <c r="J68" t="s">
+        <v>569</v>
+      </c>
+      <c r="K68" t="s">
+        <v>570</v>
+      </c>
+      <c r="L68" t="s">
+        <v>571</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>563</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>572</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>573</v>
+      </c>
+      <c r="J69" t="s">
+        <v>574</v>
+      </c>
+      <c r="K69" t="s">
+        <v>575</v>
+      </c>
+      <c r="L69" t="s">
+        <v>576</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>577</v>
+      </c>
+      <c r="O69" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>578</v>
+      </c>
+      <c r="X69" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>581</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>582</v>
+      </c>
+      <c r="J70" t="s">
+        <v>583</v>
+      </c>
+      <c r="K70" t="s">
+        <v>584</v>
+      </c>
+      <c r="L70" t="s">
+        <v>585</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>577</v>
+      </c>
+      <c r="O70" t="s">
+        <v>105</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>586</v>
+      </c>
+      <c r="X70" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>589</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>590</v>
+      </c>
+      <c r="J71" t="s">
+        <v>591</v>
+      </c>
+      <c r="K71" t="s">
+        <v>592</v>
+      </c>
+      <c r="L71" t="s">
+        <v>593</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>594</v>
+      </c>
+      <c r="X71" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>597</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>598</v>
+      </c>
+      <c r="J72" t="s">
+        <v>599</v>
+      </c>
+      <c r="K72" t="s">
+        <v>600</v>
+      </c>
+      <c r="L72" t="s">
+        <v>601</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>602</v>
+      </c>
+      <c r="O72" t="s">
+        <v>179</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>604</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>605</v>
+      </c>
+      <c r="J73" t="s">
+        <v>606</v>
+      </c>
+      <c r="K73" t="s">
+        <v>607</v>
+      </c>
+      <c r="L73" t="s">
+        <v>608</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>609</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>610</v>
+      </c>
+      <c r="X73" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>613</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>614</v>
+      </c>
+      <c r="J74" t="s">
+        <v>615</v>
+      </c>
+      <c r="K74" t="s">
+        <v>616</v>
+      </c>
+      <c r="L74" t="s">
+        <v>617</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>618</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>619</v>
+      </c>
+      <c r="X74" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>623</v>
+      </c>
+      <c r="J75" t="s">
+        <v>624</v>
+      </c>
+      <c r="K75" t="s">
+        <v>625</v>
+      </c>
+      <c r="L75" t="s">
+        <v>626</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>627</v>
+      </c>
+      <c r="X75" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>630</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>631</v>
+      </c>
+      <c r="J76" t="s">
+        <v>632</v>
+      </c>
+      <c r="K76" t="s">
+        <v>633</v>
+      </c>
+      <c r="L76" t="s">
+        <v>634</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>618</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>635</v>
+      </c>
+      <c r="X76" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>638</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>639</v>
+      </c>
+      <c r="J77" t="s">
+        <v>640</v>
+      </c>
+      <c r="K77" t="s">
+        <v>641</v>
+      </c>
+      <c r="L77" t="s">
+        <v>642</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>643</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>644</v>
+      </c>
+      <c r="X77" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>647</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>648</v>
+      </c>
+      <c r="J78" t="s">
+        <v>649</v>
+      </c>
+      <c r="K78" t="s">
+        <v>650</v>
+      </c>
+      <c r="L78" t="s">
+        <v>651</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>652</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>653</v>
+      </c>
+      <c r="X78" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>656</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>657</v>
+      </c>
+      <c r="J79" t="s">
+        <v>658</v>
+      </c>
+      <c r="K79" t="s">
+        <v>659</v>
+      </c>
+      <c r="L79" t="s">
+        <v>660</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>643</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>661</v>
+      </c>
+      <c r="X79" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>664</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>665</v>
+      </c>
+      <c r="J80" t="s">
+        <v>666</v>
+      </c>
+      <c r="K80" t="s">
+        <v>667</v>
+      </c>
+      <c r="L80" t="s">
+        <v>668</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>652</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>669</v>
+      </c>
+      <c r="X80" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>672</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>673</v>
+      </c>
+      <c r="J81" t="s">
+        <v>674</v>
+      </c>
+      <c r="K81" t="s">
+        <v>675</v>
+      </c>
+      <c r="L81" t="s">
+        <v>676</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>669</v>
+      </c>
+      <c r="X81" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>678</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>679</v>
+      </c>
+      <c r="J82" t="s">
+        <v>680</v>
+      </c>
+      <c r="K82" t="s">
+        <v>681</v>
+      </c>
+      <c r="L82" t="s">
+        <v>682</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>669</v>
+      </c>
+      <c r="X82" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>684</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" t="s">
+        <v>686</v>
+      </c>
+      <c r="K83" t="s">
+        <v>687</v>
+      </c>
+      <c r="L83" t="s">
+        <v>688</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>689</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>690</v>
+      </c>
+      <c r="X83" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>693</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>694</v>
+      </c>
+      <c r="J84" t="s">
+        <v>695</v>
+      </c>
+      <c r="K84" t="s">
+        <v>696</v>
+      </c>
+      <c r="L84" t="s">
+        <v>697</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>698</v>
+      </c>
+      <c r="X84" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>701</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>702</v>
+      </c>
+      <c r="J85" t="s">
+        <v>703</v>
+      </c>
+      <c r="K85" t="s">
+        <v>704</v>
+      </c>
+      <c r="L85" t="s">
+        <v>705</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>706</v>
+      </c>
+      <c r="X85" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>709</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>710</v>
+      </c>
+      <c r="J86" t="s">
+        <v>711</v>
+      </c>
+      <c r="K86" t="s">
+        <v>712</v>
+      </c>
+      <c r="L86" t="s">
+        <v>713</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>689</v>
+      </c>
+      <c r="O86" t="s">
+        <v>476</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>714</v>
+      </c>
+      <c r="X86" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>717</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>718</v>
+      </c>
+      <c r="J87" t="s">
+        <v>719</v>
+      </c>
+      <c r="K87" t="s">
+        <v>720</v>
+      </c>
+      <c r="L87" t="s">
+        <v>721</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>722</v>
+      </c>
+      <c r="X87" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>725</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>726</v>
+      </c>
+      <c r="J88" t="s">
+        <v>727</v>
+      </c>
+      <c r="K88" t="s">
+        <v>728</v>
+      </c>
+      <c r="L88" t="s">
+        <v>729</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>730</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>731</v>
+      </c>
+      <c r="X88" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>734</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>735</v>
+      </c>
+      <c r="J89" t="s">
+        <v>736</v>
+      </c>
+      <c r="K89" t="s">
+        <v>737</v>
+      </c>
+      <c r="L89" t="s">
+        <v>738</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>739</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>731</v>
+      </c>
+      <c r="X89" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>741</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>742</v>
+      </c>
+      <c r="J90" t="s">
+        <v>743</v>
+      </c>
+      <c r="K90" t="s">
+        <v>744</v>
+      </c>
+      <c r="L90" t="s">
+        <v>745</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>746</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>747</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>748</v>
+      </c>
+      <c r="J91" t="s">
+        <v>749</v>
+      </c>
+      <c r="K91" t="s">
+        <v>750</v>
+      </c>
+      <c r="L91" t="s">
+        <v>751</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>752</v>
+      </c>
+      <c r="O91" t="s">
+        <v>179</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>754</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>755</v>
+      </c>
+      <c r="J92" t="s">
+        <v>756</v>
+      </c>
+      <c r="K92" t="s">
+        <v>757</v>
+      </c>
+      <c r="L92" t="s">
+        <v>758</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>759</v>
+      </c>
+      <c r="O92" t="s">
+        <v>179</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42269</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>761</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>762</v>
+      </c>
+      <c r="J93" t="s">
+        <v>763</v>
+      </c>
+      <c r="K93" t="s">
+        <v>764</v>
+      </c>
+      <c r="L93" t="s">
+        <v>765</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>766</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
